--- a/wsj_scraper/wsj_data.xlsx
+++ b/wsj_scraper/wsj_data.xlsx
@@ -14,18 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Section</t>
-  </si>
-  <si>
-    <t>Text</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>Powerful Earthquake Hits Japan, Causing Tsunami and Killing 30</t>
+  </si>
+  <si>
+    <t>Baidu Terminates $3.6B Deal to Buy JOYY’s China Live-Streaming Business</t>
+  </si>
+  <si>
+    <t>Wayfair’s CEO Wants Staff to Work Harder. Your Boss Probably Agrees.</t>
+  </si>
+  <si>
+    <t>The Formula to Get More Time Off Using Your Vacation Days</t>
+  </si>
+  <si>
+    <t>Evergrande Auto’s Investment Agreement With Dubai Automaker Lapses</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Managing Your Career</t>
+  </si>
+  <si>
+    <t>Autos Industry</t>
+  </si>
+  <si>
+    <t>TOKYO—A powerful 7.6-magnitude earthquake struck an area along the west coast of Japan, causing a tsunami wave of at least 4 feet as well as home collapses and a large fire.A government spokesman said authorities were responding to at least six cases in which people were trapped inside a collapsed home. No deaths were immediately reported.Footage from news helicopters showed a fire engulfing at least several blocks in the city of Wajima near the earthquake’s epicenter.The New Year’s Day quake struck at 4:10 p.m. as many people were visiting family for the holiday or making the traditional new year visit to a temple or shrine.The Japan Meteorological Agency said the main earthquake had a magnitude of 7.6 and was followed by many aftershocks of smaller magnitude. It said the biggest tsunami measured so far reached at least 1.2 meters, or about 4 feet.As of Monday night, a tsunami warning remained in effect. Officials said there was still a risk of further tsunamis of greater magnitude than the first waves that reached a broad swath of the Japan Sea coast. Most of the damage was centered in Ishikawa and Toyama prefectures nearest the epicenter.Television footage showed violent shaking that caused items to fall off store shelves and people to reach for support to stay standing. Some roads collapsed, and flights and trains to the area were canceled.An earthquake and tsunami on March 11, 2011, killed more than 20,000 people on the Pacific coast side of Japan and led to the meltdown of three reactors at the Fukushima Daiichi nuclear-power plant.Write to Peter Landers at Peter.Landers@wsj.com</t>
+  </si>
+  <si>
+    <t>Baidu BIDU 1.08%increase; green up pointing triangle has called off a $3.6 billion deal to buy JOYY’s video-based entertainment live-streaming business in China.As of the end of December, the closing conditions for the share purchase agreement had yet to be fully satisfied, Baidu said in a filing late Monday.Some of the closing conditions in the share purchase agreement included obtaining regulatory approvals from governmental authorities.“The company seeks to discuss with JOYY the next steps following the termination of the share purchase agreement,” the Chinese tech company said.In a separate statement Monday, Nasdaq-listed JOYY said it is seeking legal advice and will consider all options in response to Baidu’s notice to terminate the deal.JOYY announced the deal nearly four years ago, under which Baidu’s acquisition would have included the YY mobile app, YY.com website, and PC YY.The Nasdaq-listed company operates several social products, including Bigo Live, Likee for short-form videos, Hago for multiplayer social networking, and an instant messaging product.Write to P.R. Venkat at Venkat.PR@wsj.com</t>
+  </si>
+  <si>
+    <t>If you want to know what the boss really wants from you in 2024, Wayfair W -3.77%decrease; red down pointing triangle Chief Executive Niraj Shah’s staff memo might be a good place to start.Shah emailed Wayfair’s corporate employees in the thick of the holiday season. First he praised everyone’s effort in returning the online home-goods retailer to profit, then called on them to dig deeper. “Working long hours, being responsive, blending work and life, is not anything to shy away from. There is not a lot of history of laziness being rewarded with success,” Shah wrote. The email, first reported by Business Insider and viewed by The Wall Street Journal, set off a brouhaha across social media. Some posters called it insensitive, especially after Wayfair’s layoffs in 2023. Others declared they would boycott the company.  To plenty of business leaders, though, Shah’s unvarnished message is cathartic—even if they would phrase parts of it less bluntly. Many of these executives privately fret that workers are too preoccupied with flexibility and work-life balance and that a more gung-ho attitude will be required to take on the business uncertainties of the coming year. If only they could say it out loud.“Behind the scenes, leaders are frustrated with this perspective of employees and this idea of quiet quitting,” says Peter Aceto, former CEO of ING Direct in Canada, now called Tangerine, who advises financial-technology CEOs in the Americas. “But there’s probably a lot of concern over how to verbalize that.” A Wayfair spokeswoman said the note from Shah, who co-founded the Boston-based company in 2002, wasn’t intended as an end-of-year or holiday message. Rather, the CEO routinely writes memos reinforcing Wayfair’s corporate values, and this one was partly inspired by conversations he had on recent visits to other Wayfair offices. “We are incredibly proud of our world-class team and culture of open communication,” the company said in a statement.Though stocks are climbing and inflation has eased, a majority of CEOs expect macroeconomic conditions to worsen over the next six months, according to a new survey of more than 260 CEOs and investors by global advisory firm Teneo. Interest rates remain high, war continues in Ukraine and the Middle East, and a high-stakes U.S. presidential election looms. That is enough uncertainty to hold back major capital investments and push companies to rein in costs. Employees will have to play a role, some executives say. The Wayfair CEO’s message to be frugal was on point, says Hussein Fazal, CEO and co-founder of Super.com, an app that lets consumers access travel and shopping discounts, cash-back offers and other ways to save and earn money, such as through surveys.  “Right now, every employee needs to be thinking of cost savings and efficiency,” Fazal says.Boosting morale and motivation is a growing challenge for many bosses. Despite wage increases and greater control over where they work, the number of U.S. workers who say they are stressed and disengaged from their jobs is climbing, according to Gallup’s 2023 workplace report. Many workers remain in the midst of a reckoning with their work lives that began with the onset of the pandemic, and they resent being micromanaged back to offices, even part-time. The rise of remote work, meanwhile, has made it harder to integrate newer employees into their workplace cultures, some managers say.Business leaders worry about waning motivation among workers, says Bill Fotsch, whose firm, Economic Engagement, advises companies on business performance and employee engagement.Among senior managers “there’s common agreement that engagement is horrible,” says Fotsch, who has worked in the past with companies such as Southwest Airlines and BHP Billiton. “There isn’t common agreement on how to solve that problem.” He says he coaches bosses to motivate workers by investing them in customers’ well-being. That includes various forms of profit-sharing, but also treating employees as trusted partners in improving the company and its bottom line. “If you tell people to work hard without giving them the motivation to do it, that doesn’t go very far,” says Henri Tausch, former CEO of boron and lithium company 5E Advanced Materials and a longtime industrial and energy executive.  It doesn’t help that bosses’ efforts to rally the troops with tough love can be easily disseminated and dissected online. MillerKnoll Chief Executive Andi Owen discovered that last spring when she sought to buck up the furniture-design company’s staff on a recorded Zoom call by urging them to “leave Pity City.” That message, too, went viral.Write to Vanessa Fuhrmans at Vanessa.Fuhrmans@wsj.com</t>
+  </si>
+  <si>
+    <t>It is barely past New Year’s Day. If you’ve taken the day off, congratulations: You have aced your first test of vacation-day math. We get only so many days of paid time off a year. And that is if you’re lucky—one in five U.S. private-sector workers gets no PTO, according to the Bureau of Labor Statistics. Without a strategy, you can have a generous number of vacation days and still feel like you never truly got away from it all.Think of the times you took a mini-break from work only to feel stressed before and afterward. The average American worker with five years at the company gets 15 paid days of vacation in a year, BLS data show. That leaves little room for bad planning if you want a serious break or two, plus some long weekends and the occasional personal day. Maxim No. 1: A vacation day equals more than a day of vacation when you attach it to a public holiday or two. Taking the day after New Year’s this year snags you a four-day weekend at the start of 2024. Timed just right between federal holidays and weekends, 15 days of PTO can turn into nearly 50 days of extended break time this year. (That is, if your co-workers don’t beat you to claiming those dates.)  Another guiding principle—Fridays off are overrated, and not just because they are peak traveling days. For a long weekend or a random personal day, there is evidence to suggest a Monday and Wednesday can be more satisfying. But more on that later.  First, some science: To really recharge, you need at least one weeklong vacation, bracketed between two weekends, research suggests. In one study of more than 50 people who took vacations for an average two weeks, participants’ well-being levels didn’t peak until their eighth day off. A 2023 study of more than 300 vacationers found people who took between eight and 14 days off reported greater and longer positive effects once they returned to work, such as better sleep, than those who took shorter breaks. One to two weeks off, in fact, appeared to have longer-lasting benefits than lengthier vacations. After a while, “you creep back to old habits,” says Ty Ferguson, a research associate at the University of South Australia in Adelaide who co-wrote the study. His own recent getaway—several days down the coast—went bust when his three children, ages five and under, came down with a bug. Then it was time to return. “I should take more of my own advice,” he says.One reason taking a week-plus vacation is important is that is enough time to actually reduce workloads. Network-equipment giant Cisco recently conducted a deep data dive on employees’ work habits and well-being, examining more than three years’ of metrics such as virtual meetings, badge-ins, PTO and engagement surveys. When workers took a day or two off, the number of meetings they had in the month didn’t change much—they just packed in more work before and after their time off. Meeting loads dropped sharply for workers who took at least five consecutive days off. The fewer the meetings, the greater tendency to report healthier routines and better stress-coping abilities, Cisco found. “I always believed in the long weekend because it can be so hard to take a week off,” says Cisco’s chief people officer, Kelly Jones. “I was wrong.” To get the most out of your finite days off, consider Gail Martino’s PTO hack for 2024. “I’m a leisure laggard,” says the senior project manager in New Haven, Conn., of her habit of waiting to take vacation time until things get slower. (Hint: That is never.) Then there is a scramble to use it or lose it toward the end of the year, with the days she does take off feeling not terribly satisfying. “You wonder, why am I so tired?” she says.In recent years, she’s become a bird watcher and wants to take a couple of birding trips along the Eastern Seaboard in 2024. “I spend a week in the woods, among trees and nature, and that is an incredible break,” she says. “Now I want to chart out the entire year.” Scanning the 2024 calendar, she devised a spreadsheet of dates bridging public holidays and weekends with a theoretical 15 vacation days and four personal days. (Working at Unilever for 18 years, she got about a week more PTO than that in 2023.) The result was 50 days of extended breaks, including 9-day stretches in July and over Christmas:A little tweaking can wring nearly the same number of extended break days with just 15 vacation days and no personal days—that is, if you get a full slate of federal holidays off and don’t have to trade off with co-workers:Want to take a three-day weekend that isn’t attached to a federal holiday? Take Monday off instead of Friday, suggests Jim Burch, a 38-year-old software engineer in Phoenix and an avid hiker. Taking Fridays off often results in cramming five days of work into four, he points out. “I’d get so stressed out on the Thursday before,” says Burch, who at his current job, has more autonomy over his schedule than in earlier jobs.Delaying gratification until Monday means your co-workers have no choice but to start the workweek without you. Back Tuesday, you can quickly catch up on whatever emails or developments you missed, he says.Then there is the unexpected pleasure of a Wednesday off. “It is like a midweek weekend,” says Rachel Blenkhorn, a social-media production manager for a real-estate investment trust who lives in Warren, Mich. It is long enough to relax or take care of appointments yet short enough to get back in the work groove on Thursday, she says. There is science as to why, says Dawna Ballard, a professor at the University of Texas at Austin and an expert in chronemics, the study of time as it relates to communication. “Everyone has a different chronotype,” or their own biologically driven pace, she says. A break after two days’ work gives you a second chance in the week to return to your internal rhythm. Psychologically, it also creates a bit of “slack” in the workweek, alleviating the stress that comes from feeling like there is too little time to get everything done. However you plot your vacation days in 2024, don’t leave any on the table. They aren’t just good for you, there is evidence they are good for your career. An Ernst &amp; Young study of its employees showed every extra 10 hours of vacation was linked to an 8% improvement in year-end performance reviews. Another study found people who took more than 10 vacation days a year were more likely to get a raise or bonus than those who took fewer days.Now that is a formula anyone can get behind. Write to Vanessa Fuhrmans at Vanessa.Fuhrmans@wsj.com</t>
+  </si>
+  <si>
+    <t>China Evergrande New Energy Vehicle said an agreement for a Dubai-based automaker to subscribe to its shares has expired, raising fresh doubts about a potential cash injection for the Chinese electric-vehicle manufacturer.The parties to the share subscription and the loan conversion agreement by Nasdaq-listed carmaker NWTN haven’t NWTN 1.17%increase; green up pointing triangle agreed to extend the long stop dates, which expired Dec. 31, 2023, Evergrande New Energy Vehicle, also known as Evergrande Auto, said in a filing late Monday.NWTN in October suspended the performance of relevant obligations under its share subscription, citing significant uncertainties regarding the EV maker’s parent, China Evergrande Group EGRNQ -20.00%decrease; red down pointing triangle.However, Evergrande Auto had said then that talks would continue between the related parties.NWTN had planned to invest $500 million for a 28% stake in Evergrande Auto, which was intended to be used by the latter to fund the expansion of its factory that has been delayed by its parent’s financial problems.In Monday’s filing, Evergrande Auto reiterated that the parties to the NWTN share subscription and the loan conversion subscription agreement will continue to negotiate amendments to certain key terms of the deal.Write to P.R. Venkat at Venkat.PR@wsj.com</t>
   </si>
 </sst>
 </file>
@@ -383,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,6 +451,76 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wsj_scraper/wsj_data.xlsx
+++ b/wsj_scraper/wsj_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="135">
   <si>
     <t>date</t>
   </si>
@@ -34,6 +34,135 @@
     <t>Powerful Earthquake Hits Japan, Causing Tsunami and Killing 30</t>
   </si>
   <si>
+    <t>Optimism Abounds on Wall Street This New Year</t>
+  </si>
+  <si>
+    <t>Shale Is Keeping the World Awash With Oil as Conflicts Abound</t>
+  </si>
+  <si>
+    <t>Russians Are Banned From Sports. Ukrainian Athletes Are Enforcing It.</t>
+  </si>
+  <si>
+    <t>Where the Job Market Is Heading in 2024, in Six Charts</t>
+  </si>
+  <si>
+    <t>Japanese Investors Return to Overseas Real Estate</t>
+  </si>
+  <si>
+    <t>Covid Slashed Consumer Choices. This Is Why They Aren’t Coming Back.</t>
+  </si>
+  <si>
+    <t>The Tax Whiz With the Strangest Hustle on Wall Street</t>
+  </si>
+  <si>
+    <t>‘Parfums d’Orient’ Review: Nosing Through History</t>
+  </si>
+  <si>
+    <t>The Little White Packet That Gives Michigan’s Players a Lift</t>
+  </si>
+  <si>
+    <t>The Sports-Betting Traders Deciding How Much You Win or Lose</t>
+  </si>
+  <si>
+    <t>Businesses Eye Possible Political Protests as Looming 2024 Risk</t>
+  </si>
+  <si>
+    <t>Western Anxiety About Chinese EVs Could Prove Self-Defeating</t>
+  </si>
+  <si>
+    <t>A Real-Estate Juggernaut Ran Off the Rails in 2023</t>
+  </si>
+  <si>
+    <t>Why Suze Orman Never Goes Out to Dinner</t>
+  </si>
+  <si>
+    <t>Pregnancy Resource Centers Spark Funding Fight</t>
+  </si>
+  <si>
+    <t>Their Quarterback Got Injured. This NFL Team Got Better.</t>
+  </si>
+  <si>
+    <t>Israeli Families Band Together to Keep Government Focused on Hostages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Tech Braces for Wave of Antitrust Rulings in 2024 </t>
+  </si>
+  <si>
+    <t>China’s Xi Is Resurrecting Mao’s ‘Continuous Revolution’ With a Twist</t>
+  </si>
+  <si>
+    <t>Kim Jong Un’s 2024 Wish List: More Nuclear Bombs, Spy-Satellite Launches</t>
+  </si>
+  <si>
+    <t>The Campaign Promises That Joe Biden Kept—and the Ones He Broke</t>
+  </si>
+  <si>
+    <t>The New Year’s New Music</t>
+  </si>
+  <si>
+    <t>Better to Let Flaco Be Free</t>
+  </si>
+  <si>
+    <t>Minnesota Nice Wants Minnesota Ice: Locals Crave Bone-Chilling Normal</t>
+  </si>
+  <si>
+    <t>Is It Really Too Much to Ask?</t>
+  </si>
+  <si>
+    <t>A Catholic School Where Faith Matters—for Jews</t>
+  </si>
+  <si>
+    <t>‘Edibles’ Are Too Often Eaten by Children</t>
+  </si>
+  <si>
+    <t>Michael Milken and the Power of a Prosecutor</t>
+  </si>
+  <si>
+    <t>PGA Tour, Saudi Deadline Passes With No Deal—but Talks Will Continue</t>
+  </si>
+  <si>
+    <t>Biden’s ‘Proportionate’ Defense of U.S. Troops Has Failed</t>
+  </si>
+  <si>
+    <t>Xenophobia Drives Foes of Nippon Steel’s Deal</t>
+  </si>
+  <si>
+    <t>John Fetterman Plays Against Type</t>
+  </si>
+  <si>
+    <t>Add Flour and Salt and Assimilate</t>
+  </si>
+  <si>
+    <t>‘Soldier of Destiny’ Review: A Mystery to Himself</t>
+  </si>
+  <si>
+    <t>Biden’s $3.1 Billion Train Ticket to Nowhere</t>
+  </si>
+  <si>
+    <t>Beijing Is on a Wartime Footing</t>
+  </si>
+  <si>
+    <t>Does Biden Want Ukraine to Win?</t>
+  </si>
+  <si>
+    <t>Israel Reshuffles Forces, Prepares for Long-Term Conflict in Gaza</t>
+  </si>
+  <si>
+    <t>Israel’s Highest Court Strikes Down Controversial Law to Curb Its Power</t>
+  </si>
+  <si>
+    <t>Making Discrimination OK Again</t>
+  </si>
+  <si>
+    <t>Xi Jinping Says Happy New Year</t>
+  </si>
+  <si>
+    <t>Double Dipping in Opioid Lawsuits</t>
+  </si>
+  <si>
+    <t>The Military’s Phantom ‘Extremists’</t>
+  </si>
+  <si>
     <t>Baidu Terminates $3.6B Deal to Buy JOYY’s China Live-Streaming Business</t>
   </si>
   <si>
@@ -49,9 +178,96 @@
     <t>Japan</t>
   </si>
   <si>
+    <t>Markets</t>
+  </si>
+  <si>
+    <t>Oil Markets</t>
+  </si>
+  <si>
+    <t>Olympics</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>Property Report</t>
+  </si>
+  <si>
+    <t>Logistics Report</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Exhibition Review</t>
+  </si>
+  <si>
+    <t>College Football</t>
+  </si>
+  <si>
+    <t>Media &amp; Marketing</t>
+  </si>
+  <si>
+    <t>Risk &amp; Compliance Journal</t>
+  </si>
+  <si>
+    <t>HEARD ON THE STREET</t>
+  </si>
+  <si>
+    <t>Commercial Real Estate</t>
+  </si>
+  <si>
+    <t>My Monday Morning</t>
+  </si>
+  <si>
+    <t>Health Policy</t>
+  </si>
+  <si>
+    <t>NFL</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
     <t>Tech</t>
   </si>
   <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Election 2024</t>
+  </si>
+  <si>
+    <t>Music Review</t>
+  </si>
+  <si>
+    <t>Letters</t>
+  </si>
+  <si>
+    <t>the a-hed</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Commentary</t>
+  </si>
+  <si>
+    <t>Bookshelf</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Main Street</t>
+  </si>
+  <si>
+    <t>Review &amp; Outlook</t>
+  </si>
+  <si>
     <t>Business</t>
   </si>
   <si>
@@ -62,6 +278,135 @@
   </si>
   <si>
     <t>TOKYO—A powerful 7.6-magnitude earthquake struck an area along the west coast of Japan, causing a tsunami wave of at least 4 feet as well as home collapses and a large fire.A government spokesman said authorities were responding to at least six cases in which people were trapped inside a collapsed home. No deaths were immediately reported.Footage from news helicopters showed a fire engulfing at least several blocks in the city of Wajima near the earthquake’s epicenter.The New Year’s Day quake struck at 4:10 p.m. as many people were visiting family for the holiday or making the traditional new year visit to a temple or shrine.The Japan Meteorological Agency said the main earthquake had a magnitude of 7.6 and was followed by many aftershocks of smaller magnitude. It said the biggest tsunami measured so far reached at least 1.2 meters, or about 4 feet.As of Monday night, a tsunami warning remained in effect. Officials said there was still a risk of further tsunamis of greater magnitude than the first waves that reached a broad swath of the Japan Sea coast. Most of the damage was centered in Ishikawa and Toyama prefectures nearest the epicenter.Television footage showed violent shaking that caused items to fall off store shelves and people to reach for support to stay standing. Some roads collapsed, and flights and trains to the area were canceled.An earthquake and tsunami on March 11, 2011, killed more than 20,000 people on the Pacific coast side of Japan and led to the meltdown of three reactors at the Fukushima Daiichi nuclear-power plant.Write to Peter Landers at Peter.Landers@wsj.com</t>
+  </si>
+  <si>
+    <t>Wall Street is feeling sunny about the stock market as the calendar flips to 2024.Last year’s widespread skepticism proved to be misplaced. Stocks rose through much of 2023, powered by the rise of artificial intelligence and an economy that stayed stronger than nearly all of Wall Street had anticipated. The recession that investors had largely agreed was imminent never came.Now, with the S&amp;P 500 within 0.6% of a record high, the crowd is much more optimistic.Behind the dramatic turn in attitude is a growing belief among investors that the Federal Reserve’s campaign to fight inflation is winding down, ending the interest-rate hikes that buffeted markets in recent years. Many now expect the central bank will likely next cut rates instead, shifting market dynamics in ways that seemed unlikely just months ago.Obvious risks are on the horizon: A sharp fall in rates could follow bad news, like an economic shock or recession. The few big stocks that powered the market higher last year could run out of steam. Looming elections in the U.S., and wars in Europe and the Middle East, might make the world less investor friendly.But 2023’s big gains, and the prospect of even smoother seas ahead, have helped dissipate much of the gloom. “Instead of a higher for longer rate environment, it’s lower and sooner,“ said David Kostin, chief U.S. equity strategist at Goldman Sachs. Goldman has an S&amp;P 500 target of 5100, implying a return of about 7% from current levels near 4770. Strategists at JPMorgan Chase are among the bears, with a price target of 4200.The year culminated with a fierce “everything rally” that pushed prices higher in nearly every asset class, including stocks, bonds, gold and even cryptocurrencies. Yields on risky corporate bonds have fallen to some of the lowest levels of the past year, while bond prices have rallied.All told, the S&amp;P 500 returned 24%. The benchmark 10-year Treasury yield settled at 3.860%, near where it started the year, but down from a peak of 5.021% in October. Wall Street’s fear gauge, the Cboe Volatility Index, closed Friday at 12.52, near several-year lows.Most investors are expecting the good times to continue.A survey conducted in December by BofA Securities found that fund managers were more optimistic than in any month since January 2022, which coincides with the S&amp;P 500’s last all-time high. The group is collectively the most bullish on stocks since February 2022.More than 90% of participants, who collectively manage $691 billion of assets, predicted the Fed is done raising interest rates. More than 60% said they expect lower bond yields in a year, a record high for the survey. “Even with moves we’ve had recently, you still have generationally attractive fixed-income markets,” said Matt Orton, head of market strategy at Raymond James Investment Management.He said corporate bonds look especially attractive, offering investors the best opportunity since the financial crisis of 2008-09 to diversify their portfolios and lock in higher rates longer term.Earnings could also provide a boost, after they stagnated last year. Wall Street is expecting a return to brisk growth in corporate profits, with analysts forecasting S&amp;P 500 earnings growth of 11.6% in the new year and 12.5% in 2025, according to FactSet.While investors love bonds and stocks in general, some are more skeptical of the “Magnificent Seven” group of big technology companies that dominated the market in 2023. Nearly half of those survey respondents identified owning shares of those seven firms—Apple, Alphabet, Amazon.com, Meta Platforms, Microsoft, Nvidia and Tesla—as the “most crowded” trade on Wall Street. The average one-year price target for stocks within the Magnificent Seven is about 11% higher than Friday’s closing price, according to estimates compiled by FactSet. Nvidia has the highest expected return at about 34%. The laggard is Tesla; analysts are projecting the stock will shed 3%. Many consider that crowding a sign of limited future upside. “I certainly would not underweight them, but I’m not sure they will outperform the rest of the market. The other 493 stocks are in a catch-up trade,” said Tony Roth, chief investment officer at Wilmington Trust, referring to the rest of the S&amp;P 500. Roth said several other sectors are attractively priced, including financials, healthcare and energy stocks.Uncertainty stemming from November’s presidential election—and the potential for major shifts in fiscal policy—also looms as a possible risk for markets, some strategists said. But the S&amp;P 500 has risen in 73.9% of presidential election years since 1929, according to Dow Jones Market Data. That is higher than the overall average of 64.9%. The index has returned an average of 6.15% in election years.The major risk remains disappointment over interest rates. Fed officials released projections of at least three rate cuts in 2024 after their most recent policy meeting. Interest-rate derivatives traders are betting on more—projecting interest rates about 1.5 percentage points below current levels, according to the CME Group’s FedWatch tool. That implies six or seven cuts by the central bank, with most expecting the first at the March policy meeting.That gap has some strategists predicting market swings if the Fed is slower to cut than investors expect.  “I just think there’s still going to be challenges with the market perhaps being ahead of where the Fed is.” said Raymond James’s Orton. “And that’s OK, because volatility presents opportunities.”Write to Charley Grant at charles.grant@wsj.com</t>
+  </si>
+  <si>
+    <t>A surprise surge in American oil and gas production and exports is helping to keep the world stocked, blunting the impact of widening conflict in the Middle East that has crimped key shipping lanes. When Iranian-backed Houthi militants began launching missiles and drones at ships crossing the Red Sea near Yemen in October, many feared disruption to the vital shipping lane would drive up energy prices. But oil and gas prices this past month have sunk about 5% and 23%, respectively. That is largely because of record production of U.S. fossil fuels.Shippers in November moved more oil out of the U.S. than what was produced in Iraq, OPEC’s second-largest member, at a record 4.5 million barrels a day. Likewise, U.S. exports of liquefied natural gas, or LNG, are set to hit a record in December, according to market intelligence firm Kpler. European countries have snapped up more U.S. cargoes in recent months, becoming less reliant on shipments through the Suez Canal, a key Red Sea artery.    The attacks on vessels, which the Houthis say are in retaliation for the Israeli military operation in Gaza, have intensified in recent days. U.S. officials alleged a Dec. 23 attack drone launched directly from Iran struck a Japanese-owned chemical tanker off the coast of India, though Tehran denied that claim.The shipping crisis is expected to raise consumer prices for goods that cross the Red Sea, as hundreds of vessels have been forced to reroute around the Cape of Good Hope in South Africa. But it is unfolding just as U.S. frackers have caught a second wind that, so far, has countered inflationary effects in energy. Many forecasters expected U.S. oil production to grow only modestly in 2023 as frackers responded to investor pleas for conservative spending, allowing the companies to pay off debt and fund dividends and share buybacks. It isn’t entirely clear how long shale companies can keep increasing production at the same fast clip. Shale drillers, especially privately held companies, deployed more rigs in late 2022 in response to higher commodity prices driven by Russia’s invasion of Ukraine. Much of the production from the wells they drilled came online recently, but the U.S. rig count dropped in 2023 and drillers have proposed relatively modest budgets for 2024.At the same time, large public shale companies such as EOG Resources, Devon Energy and Diamondback Energy said they have sped up drilling times and are pumping more oil from wells they drilled. The scope and duration of those advances are unclear.U.S. oil production had grown to about 13.2 million barrels a day as of October, up almost 900,000 barrels a day from the same month in 2022, according to the Energy Information Administration’s latest available data.Meanwhile drillers in Guyana and Brazil also swiftly increased their output in 2023, though neither gained as much as U.S. shale.  All of that has kept the world’s oil inventories far more flush than traders expected months ago, subduing oil prices. In response, the Organization of the Petroleum Exporting Countries and its allies moved in November to cut output further to prop up prices. U.S. crude prices have dropped about 21% in the fourth quarter, and were down about 6% in December.  One beneficiary of cheaper oil: President Biden, whose Energy Department has recently accelerated its purchases of crude meant to replace the barrels it sold off in 2022 from the nation’s strategic petroleum reserve. The government had sold the barrels at higher prices that year, and is now competing more actively with international oil buyers.Tankers have recently carried more U.S. crude to the Netherlands, the U.K., Italy, Spain, France, Germany and other countries as more of Russia’s crude has flowed to Asia following Western sanctions. U.S. oil shipments to Europe have jumped 34% since this time in 2022 and 82% from before Russia’s invasion of Ukraine, Kpler data show.Longer term, the Red Sea situation could bring more business for U.S. LNG shippers, which are building out export capacity at Gulf Coast facilities and are vying for lengthy contracts with big buyers in Europe, analysts said.The percentage of LNG tankers set to pass through the Suez Canal has dropped to its lowest point in at least a decade. At the same time, American LNG exports are expected to rise to a record of more than 8 million metric tons in December, up from the previous record of 7.7 million in October, Kpler projected.Advocates for fracking have long said fast-growing U.S. shale production could help stabilize markets in times of crisis, in part, because of the speed with which a shale well produces. But analysts warned shale’s market influence would diminish if Iran became directly embroiled in the conflict. “When you’re talking about a minor disruption here or there, surging U.S. production helps,” said Robert McNally, president of consulting firm Rapidan Energy. “But Iran is a problem shale can’t solve, because Iran threatens the Strait of Hormuz, through which 18 million barrels a day flows.” Also, with oil prices lower than in late 2022, many shale drillers large and small are planning to keep spending roughly flat in 2024, in line with investors’ preferences. That is expected to curtail production growth. U.S. crude-oil production is expected to increase some 300,000 barrels a day in 2024, Rapidan Energy projects. Spending by U.S. producers is expected to increase about 2% to a collective $115 billion in 2024. That is compared with a 19% spending boost in 2023, and still well below the annual average of $150 billion from 2010 to 2015, the industry’s heyday, according to a survey conducted by James West, an analyst at investment bank Evercore ISI.“They don’t spend like drunken sailors anymore,” West said. West said U.S. shale companies have made some incremental improvements in efficiency, such as in the time it takes to drill a well. But the recent production boost is more the result of a large rig count in late 2022 and early 2023, he said. As of Friday, the number of drilling rigs active in the U.S. had fallen by about 20% since the end of 2022, according to Baker Hughes. Some analysts also expect continued consolidation in the oil patch to curtail growth, as large oil companies purchase smaller rivals. In October, Exxon Mobil agreed to buy Pioneer Natural Resources for nearly $60 billion in stock, and Chevron announced it would snap up Hess for $53 billion in stock.Though the U.S. shale industry has moved away from its hypergrowth phase, there is a dawning realization following global conflicts that demand for oil and gas will remain healthy for years to come, said John Arnold, billionaire philanthropist and former natural-gas trader. “I think there is growing confidence from investors that the industry isn’t going away anytime soon,” Arnold said.Write to Collin Eaton at collin.eaton@wsj.com</t>
+  </si>
+  <si>
+    <t>When a rink in northern Virginia planned an ice show featuring Russian ice dancers last summer, it skated into a formidable opponent: Oksana Baiul. The 1994 Olympic champion found out that the show’s billed main attraction were Diana Davis and Gleb Smolkin—she the daughter of the notorious Russian skating coach Eteri Tutberidze—and thought their appearance would undermine the ban on Russians competing imposed after the invasion of Ukraine. So she leapt into action, texting an official at U.S. Figure Skating and asking pointed questions. The incident was a sign of the lengths to which Ukrainian athletes have been willing to go to enforce sports sanctions against Russia and its ally Belarus—one ice show and coaching clinic at a time—and how Ukraine’s current and former competitors have embodied the mentality of a country fighting for its survival. The campaign they have waged also helps to explain the uneasy compromise the International Olympic Committee confirmed in December for 2024’s Olympic Games in Paris: most Russian athletes will be barred and only screened individual competitors who have shown no public support for the war will be allowed, from sports whose international federations are willing to let them in. It’s a solution that satisfies practically nobody except the Olympic leaders who said it would be discriminatory to lock out athletes solely on the basis of their passport. Russian officials are livid at the restrictions, while Ukrainians have threatened to boycott over any Russian presence. At the same time, the 2024 plan is tougher action than the IOC has ever taken against Russia before, including when it allowed Russian athletes into the last three Olympics under a pseudonym in response to an epic doping scandal. Working from her phone at home in Shreveport, La., the skater now known as Oksana Baiul-Farina is easily the most recognizable sports figure in the Ukrainian operation, in which athletes have scoured the Internet for potential violations of individual sports federations’ Russian bans, and amassed evidence of Russian star athletes’ backing for the conflict.Now 46 and a longtime U.S. resident, with an American husband and an 8-year-old daughter, the skater best known for edging out Nancy Kerrigan at the 1994 Olympics is also like almost any other Ukrainian abroad. Baiul-Farina says she watched the invasion of her homeland from her kitchen, shaking in horror, and feeling powerless to help. Then she found her answer, in keeping Russian athletes out of global sports, particularly once the IOC seemed inclined to let them back. “I am the first Olympic champion for the country of Ukraine,” said Baiul-Farina. “I said, no, no, no, here I can help. I’m not going to keep it quiet, this is my area.” When IOC President Thomas Bach indicated he wanted at least some Russian and Belarusian athletes at the 2024 Olympics in Paris, competing as “neutral athletes” without national insignia, because global sports couldn’t survive “full politicization,” Ukrainian sports stars responded by shooting videos speaking directly to him. There was boxer Wladimir Klitschko in front of a bombed-out building—and Baiul, wearing a yellow-and-blue Ukrainian Olympic tracksuit from 1994, which she said was far too big for her to wear back then.“We Ukrainians did not start it. This is why we don’t want for neutral athletes, athletes from Russia to participate in [the] 2024 Olympic Games. Help us,” she urged in Russian, accompanied by English subtitles.She has put back the tracksuit back on for television interviews since. Then came the skating show at the Ion International Training Center—which went ahead without the ice dancers Davis and Smolkin. The rink’s chief executive Mitra Setayesh says that nobody at U.S. Figure Skating told her to pull them. Smolkin said they didn’t perform because they wanted to focus on preparing for getting back to competition—soon after, they left the Russian team to get around the competitive ban, and made their debut representing Georgia instead. “We wanted to compete internationally,” said Smolkin, “and when we finally realized we aren’t going to be allowed to, we started to see what our options could be. Since Diana is Georgian, we’ve made a decision.”In the 22 months since the war began, the tension around Russian participation has played out in sport after sport. In skating alone there has been a multitude of incidents.When the Ukrainian skater Viktor Petrenko performed in a show in Russia, he was ousted from the Ukrainian skating federation and the Ukrainian government stripped him of a stipend. Petrenko won a gold medal skating for the Unified Team at the 1992 Olympics. A master class by Olympic silver medalist Alexandra Trusova in Sweden was canceled after pressure, the U.S. skating association dropped plans to have a Russian coach at an elite American pairs skating training session, and another Russian coach was disinvited from a skating camp in France after Ukrainian athletes sent the host of the camp examples of the coach’s support for the invasion. “We have a team who is checking social media, Instagram, Facebook,” said Maksym Nikitin, a two-time Ukrainian Olympian in ice dance. “We are following all of the Russian coaches and people, we are checking where they are and what they are trying to do.”Nikitin and his fellow volunteers have assembled a detailed database of skaters’ affiliations with the Russian government and vocal backing of the war, with screenshotted statements, photographs, and video. Coaching in the Netherlands, Nikitin has been reaching for his phone to resume his research during breaks for the ice to be resurfaced. He hasn’t always had to look far for examples. The database includes his Russian former coach, and his Russian former training partners and friends, Victoria Sinitsina and Nikita Katsalapov, who are shown appearing prominently at a large stadium rally in March 2022 in support of the invasion, wearing the Z symbol associated with it.Other Ukrainian athletes have maintained similar efforts for other sports. The reconnaissance work, they hope, will make it harder for sports officials to justify any of Russia’s most famous sportspeople appearing at big international competitions—like the Olympics.Baiul-Farina said she had no animosity toward Russians—just Russians who had affiliated themselves with Vladimir Putin’s government. She scoffed at the idea that any top Russian athletes could be considered neutral, pointing to the government’s financial support of them throughout their careers, and the expectations on them to back the state in return. On the same weekend as the ice show in Leesburg, Va., the council of the International Skating Union was meeting in Budapest and deciding to maintain their competition ban, at least for now. “At the official meeting when they decided not to allow Russians and Belarusians back in figure skating,” Baiul-Farina said, “I cried like I did at the Olympic Games.”Write to Louise Radnofsky at louise.radnofsky@wsj.com</t>
+  </si>
+  <si>
+    <t>Employers slowed hiring and handed out smaller raises in recent months, signs of fading momentum in the job market that have some forecasters expecting unemployment to rise in 2024.And that might be OK. The key for American workers and Federal Reserve policymakers is to have the labor market cool without collapsing. That would support household incomes while helping inflation drift lower, putting the economy on a glide path to a soft landing—as long as the slowdown isn’t too severe.“You can see these small cracks forming” in the labor market, said Michael Pugliese, a senior economist at Wells Fargo. “That should give you reason for pause going into 2024.” Here is where the labor market is heading in the new year.The U.S. labor market was a pillar of economic strength in 2023, with solid hiring and rising wages helping households navigate high inflation and an otherwise bleak view of the economy. It was also too hot for the Fed. Officials at the central bank worried that high demand for goods and services alongside a constrained supply of workers would push wages up too fast, fueling inflation.Several factors combined to cool it off—to the point that economists expect hiring to slow considerably in 2024.The Fed’s campaign of interest-rate hikes made it more expensive to borrow money, slowing some economic activity. Many industries that had struggled to find workers surpassed prepandemic employment levels, making hiring less urgent. People came off the sidelines and immigration picked up, adding to the pool of available workers.By the end of 2023, workers had stopped job hopping as much, while employers hired less but kept layoffs low. The result was a less-frenzied labor market.Job growth also became more concentrated in a handful of industries: healthcare and social assistance (which includes private-sector child-care workers, home-care aides and social workers), leisure and hospitality, as well as state and local government. Outside those sectors, hiring slowed sharply and in some areas contracted.The less dynamic labor market helped put a brake on rapid wage growth—a key consideration for the Fed. Average hourly earnings across the private sector rose at an almost 6% annual pace early in 2022 but cooled to 4% near the end of 2023. In sectors with the greatest competition for workers, such as restaurants, wage gains also eased substantially.Wage pressures could still prove too hot for the Fed. Current pay gains still aren’t consistent with the central bank’s 2% inflation target, said Chris Varvares, co-head of U.S. economics at S&amp;P Global Market Intelligence. That means job growth will have to slow further to bring the labor market into better balance.“We think employment growth remains positive but too slow to absorb all entrants into the labor force,” Varvares said. That will push the unemployment rate to 4.1%, according to S&amp;P forecasts, up from November’s 3.7% and the highest level since the end of 2021.Another warning sign for the labor market: Temporary hiring has been on a downward slope for more than a year. Temps are considered a bellwether for the labor market. They are often the first hired as businesses start staffing up and the first dismissed when the economy sours.“There’s a clear trend toward cooling,” said Andy Challenger, senior vice president at outplacement firm Challenger, Gray &amp; Christmas. “We expect elevated layoffs into the first quarter and after that it could level off or get worse.”Still, there are reasons for optimism. The labor market has cooled, but as of November, it was still producing jobs at a faster pace than it was just before the pandemic. Consumer spending has proven resilient, propelling demand for an array of goods and services—and the people who produce them. And companies, broadly, have been reluctant to lay off workers after they so recently struggled to find and keep them.“Unemployment is unlikely to increase dramatically as companies shy away from firing workers,” Ellen Zentner, chief U.S. economist at Morgan Stanley, said in a research note. “Labor shortages and the high turnover costs over the past several years mean firms are hesitant to let their workers go even as economic growth slows.”Write to Jeffrey Sparshott at Jeffrey.Sparshott@wsj.com and Gabriel T. Rubin at gabriel.rubin@wsj.com</t>
+  </si>
+  <si>
+    <t>TOKYO—Big Japanese investors stumbled disastrously into the U.S. commercial real-estate market in the late 1980s, when they bought high-profile properties like New York’s Rockefeller Center not long before the market fell hard.Now some Japanese institutional investors and real-estate companies are back—but this time it isn’t about flaunting trophy purchases. It is about diversifying portfolios for the long term and getting good bargains while the market is slumping.Japanese investors in 2023 put $3.7 billion into commercial real estate in the Americas as of Dec. 11, the largest volume since 2016, according to data provider MSCI Real Assets.“There may be people who need to sell because of their financial straits, which would provide a chance to make a deal at a reasonable price,” said Makoto Sakuma, a researcher at NLI Research Institute, which is affiliated with Nippon Life Insurance. “Because real estate is a long-term investment, Japanese investors should look for opportunities when the market is cooling down rather than when it is heating up.”In June, Tokyo-based real-estate company Mori Trust said it invested in 245 Park Avenue, an office building next to Grand Central Terminal in Manhattan, which is jointly owned by SL Green Realty. Mori Trust said it was spending ¥100 billion, equivalent to $700 million, for its share in the building plus renovations.A Mori Trust representative said the company used its own funds for the investment. “In the current U.S. financing environment, a player like us who does not require financing from a third party has competitive advantage in the U.S. real-estate market,” the representative said.While Mori Trust acknowledged that the rise in Americans working from home has caused stagnation in office real estate, it pointed out tenant demand remained strong for the highest quality space and the Midtown Manhattan property would have high potential after renovation. It said it would buy more office properties if it can find standout buildings.Other 2023 deals by Japanese buyers include mobile carrier KDDI’s purchase of three Toronto data centers for 1.35 billion Canadian dollars. In November, a fund co-founded by Tokyo-based real-estate company Mitsubishi Estate said it bought an office and retail complex in Sydney, spending the equivalent of about $700 million for the acquisition and renovations.For Japanese institutional investors, overseas real estate is attractive because the yields tend to be higher than they can get at home. The investors can raise funds inexpensively thanks to low Japanese interest rates.Nippon Life, which is Japan’s largest insurer by assets with the equivalent of about $555 billion, is typical of the revived interest. Decades ago, Nippon Life found it difficult to manage faraway properties from Tokyo and began reducing its overseas portfolio in the 1990s, ultimately selling all of its buildings. It returned to overseas real estate in 2018, this time investing through real-estate funds.The insurer had some $3.9 billion in exposure to real estate in the U.S., Europe and Asia as of the end of September. Yu Kosaka, deputy general manager of Nippon Life’s finance and investment planning department, said the company aimed to more than double the figure in the coming years. He said the life insurer’s long-term horizon was a good fit for real estate, which isn’t as easy to buy and sell as stocks but can be expected to deliver solid returns in the long run.His colleague Takafumi Satake, who oversees alternative investments, said Nippon Life is underweighting office real estate for now in light of the high vacancy and weak demand of the pandemic era.In the first 10 months of 2023, Japan was No. 5 globally in terms of cross-border investment in commercial real estate, compared with its No. 16 ranking in 2022, according to MSCI. It trailed only the U.S., Singapore, Canada and Hong Kong.Japanese investors still face the risk this cycle won’t reverse as smoothly as previous down cycles.Vacancy rates remain high in cities such as New York and San Francisco and are expected to climb higher as more leases expire and tenants downsize. A recently updated study by economists at three U.S. universities found a 49% decline in the long-run value of New York City office buildings owing to the rise of remote work.Japanese institutional investors are dealing with the risk by investing in a variety of real estate categories and markets.Japan’s Government Pension Investment Fund, which manages around ¥219 trillion, equivalent to $1.5 trillion, in assets, began investing in global real estate in 2018 through real-estate funds managed by others. In 2023, it committed $500 million each to real-estate funds run by Blackstone and Brookfield.GPIF is allowed to invest up to 5% of its assets in alternative assets, a category that includes real estate as well as private equity and infrastructure. As of the end of March 2023, 45% of the fund’s real-estate investments were in the U.S., followed by 25% in Japan, 8% in the U.K. and 7% in Australia.GPIF said it believed its long-run returns would rise through alternative-asset investments.Write to Megumi Fujikawa at megumi.fujikawa@wsj.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The furniture retailer Malouf sells beds and bedding in a fraction of the colors it did a few years ago. Newell Brands, the Sharpie maker, has retired 50 types of Yankee Candle. Coca-Cola offers half as many drinks. Covid slashed consumer choices as companies pared their offerings to ease clogs in the supply chain. The logistical mess is behind them. But many of the choices aren’t coming back.  Retailers and suppliers across industries—from groceries to health, beauty and furniture—have said that it didn’t pay to offer products for everyone, and consumers didn’t care that much when they stopped. “Today, people would rather lose a portion of consumer demand as opposed to spending extra on too much variety,” said Inna Kuznetsova, chief executive officer of ToolsGroup, a supply-chain planning and optimization company. Macy’s president and CEO-elect, Tony Spring, told analysts in November that “the customer today does not want an endless aisle.” New items made up about 2% of products in stores in 2023 across categories such as beauty, footwear and toys, down from 5% of items in 2019, according to the market-research firm Circana. Shelf Engine, a technology company that automates ordering for grocery retailers, said large grocery stores have reduced fresh-food offerings such as fruit, dairy products and deli meats by 15% to 20%.Large grocers cutting back on choice is a reversal from prepandemic days, when they believed they had to carry everything to avoid losing customers to the store across the street, said Stefan Kalb, CEO of Shelf Engine. Kalb said that grocers are now saving money because they have fewer items to manage and that the slimming of product options is reducing food waste. Executives at consumer-product companies said the thinning of their product lines has been a relief for those struggling to improve profitability in the midst of higher interest rates and rising costs for raw materials and labor. They said many of the reductions have been in lines that consumers wouldn’t notice, such as items in special packaging and assortments for specific big-box retailers. The cutbacks are also to product lines that drown consumers in options.“I don’t think any consumer would have noticed we went from 200 to 150” types of Yankee Candle, said Chris Peterson, chief executive of Newell Brands.Some industry specialists said the new focus on bestselling items has reduced innovation and hurt smaller brands that rely on retailers’ desire to carry something for everyone. “There has definitely been less innovation since the pandemic,” said Seth Goldman, a founder of the organic-beverage maker Honest Tea, which was bought by Coca-Cola in 2011 and discontinued in 2022.Coca-Cola over the past few years reduced its brands to 200 from 400, cutting slow-growing as well as declining products, including small regional lines such as Northern Neck Ginger Ale and national brands such as its first diet cola, Tab.“It was pruning the garden to let the better plants grow,” Coca-Cola Chief Executive James Quincey said in 2022. Goldman said there was still demand for Honest Tea, even if it wasn’t big enough for Coca-Cola. In September 2022, four months after Coca-Cola’s announcement, he launched Just Ice Tea, a drink that he said is similar to Honest Tea and that is expected to have sales in 2023 of more than $16 million. Companies began winnowing product lines in the years leading up to the pandemic as a corrective to previous decades when consumer choice ballooned. That was partly because of the internet, where online retailers weren’t constrained by the space limitations of physical stores, giving rise to the term “endless aisle.”The cuts were turbocharged in 2020 and 2021, when product shortages and a surge in consumer spending led companies to give priority to the most in-demand items. They focused on products that ran fastest on production lines and, because of social distancing in factories, could be made with automated machinery. Kimberly-Clark cut more than 70% of its toilet paper and facial-tissue products over a single weekend in 2020 as it rushed to satisfy a fourfold increase in demand, said Tamera Fenske, the company’s chief supply chain officer.Fenske said the company jettisoned slow-selling items as well as many of the special counts and custom sizes it made for individual retailers. Fenske said that, as pandemic restrictions eased, Kimberly-Clark was able to be more thoughtful about the items it brought back. She said the company carries about 30% fewer product lines in North America than it had at the start of 2020. PVH, which owns Tommy Hilfiger and Calvin Klein, embarked in 2020 on a plan to cut more than a fifth of its offerings to focus on what it calls “hero” products—those that make up an essential part of someone’s wardrobe.  Some companies said the culling of less-popular products opened up space for new lines. Georgia-Pacific stopped selling 164-sheet rolls of Quilted Northern toilet paper because its larger rolls were better for consumers who valued longer-lasting rolls, said Kim Burns, senior vice president of supply chain for Georgia-Pacific’s consumer products group. Burns said the company has subsequently invested more time and money in new product lines, such as toilet paper with a scented tube that acts as a bathroom air freshener.  For other companies, the supply-chain shock provided a real-life experiment in how trimming product lines could improve productivity without hurting customer satisfaction. “It was quite shocking as we parsed it out to see we were using a lot of our buying power to really not get much of a return on investment,” said Nick Jensen, vice president of product at Malouf. The Logan, Utah-based furniture company has reduced its lines to about 3,500 product choices, down from almost 11,000 items before the pandemic. Jensen said the company is adding new items more carefully these days.  “If we have 15 different colors and three shades of gray, it’s a paralyzing choice,” Jensen said. “It’s kind of forced us to be much more intentional versus throwing a lot of things at the wall and hoping that they stick.”Write to Paul Berger at paul.berger@wsj.com </t>
+  </si>
+  <si>
+    <t>Andy Lee is the king of a lucrative niche in the financial markets. Being king isn’t easy.Lee invests in tax receivable agreements, increasingly common arrangements that put cash into the pockets of early investors in companies. Not many investors know how they work, and a surprising number of people don’t even know they have them.That gives Lee an opening to buy up the cash flows from TRAs, as they are known, at a discount and count his winnings as they pay off. To get to that point requires deep knowledge of taxes, investing and the law, plus lots of persistence. To close a recent deal, Lee needed to obtain wet signatures, meaning handwritten, from as many as 114 people in seven days. “I want to punch myself in the face,” Lee said. “It’s not rocket science, but there aren’t many people in finance who like to do this kind of thing.” Lee does. He has an average of 32 conversations a week in hopes of drumming up deals. He has pursued prospective sellers to extreme ends, once running a charity 5K race in hopes of pitching a deal to its guest of honor, a TRA holder. Lee, 33 years old, founded Parallaxes Capital in 2017, creating a fund that seeks to turn TRAs into a new asset class by creating a secondary market for investors.“In a relatively small and not super well-known space, Andy is by far the biggest fish in that pond,” said Albert Chang, head of M&amp;A, tax and structuring advisory at RBC Capital Markets.Lee often starts with cold outreaches to people with TRAs who are surprised to hear from him. One company founder responded to Lee’s pitch with a cry laughing emoji. “I don’t know what a TRA is, so probably not for me,” the founder said.Lee had the public financial filings to prove the founder had a TRA and a price Parallaxes would pay for its future cash flows. Through thousands of conversations and one-on-one deals like these, Parallaxes has invested more than $300 million across four funds. It is currently raising two more.As Lee pitches TRA holders, he educates potential investors. “I got the deck sent to me and at first I didn’t really understand what this was,” said Gilbert Calderon, chief investment officer at M4 Capital Management, a single-family office in Chicago known for buying esoteric investments. M4 eventually signed on.Other early investors included endowments that understood TRAs because they were themselves beneficiaries. One family office sold its own TRA payment rights to Parallaxes. It took a stake in the firm’s first fund instead of cash.Parallaxes’s first two funds have returned about 15% annually, according to investors. Later funds have done better because some companies whose TRA rights they owned were acquired and the TRAs were paid out early.TRAs are mostly used to unlock tax advantages when businesses structured as partnerships or limited-liability companies go public. The pre-initial-public-offering investors maintain an interest in the original operating company while the new shareholders own stock in a new publicly traded entity, which then holds shares in the operating company.When the original investors sell, their stakes in the operating company become new shares in the publicly traded holding company. This triggers the creation of the tax asset, which can reduce the company’s tax bill. A TRA splits those savings with the early investors, offsetting some of the tax bill from their sales. Nearly all TRAs split the tax assets 85/15 between the investor and company, in what is billed as a win-win for both parties. These payments to pre-IPO owners usually stretch over 15 years. Parallaxes offers TRA beneficiaries cash up front in exchange for those potential future payments. The deals are similar to upfront payments for structured lawsuit settlements or winning lottery tickets that pay off over time. In its median deal, Parallaxes offers a TRA holder about $4 million and typically anticipates getting back 2.5 times its investment. Investors like TRA cash flows because they have tax advantages over bonds and aren’t highly correlated to public markets. But if a company doesn’t produce big-enough profits or if tax rates go down, the TRA payouts could take longer or be less than expected. The biggest threat to a TRA is bankruptcy. Lee started college at 16, attending the University of Illinois Urbana-Champaign, where his father had received a Ph.D. in computer science and his mother a master’s degree in accounting with a focus on taxes. Lee graduated with a job offer to join Citigroup in New York as an analyst. But his father would only cosign Lee’s lease in New York if he earned a graduate degree. Lee chose the same accounting master’s his mother did because it required little in-person attendance and had an open-book final exam. At Citigroup, Lee worked on a transaction where Cloud Peak Energy, a coal producer spun off from mining company Rio Tinto, pushed its former parent to sell its TRA obligation at a steep discount. Lee realized that Cloud Peak was essentially paying 36 cents for every $1 of cash flow that would accrue under the TRA. Lee left Citigroup for private-equity firm Lone Star Funds, where he was tasked with coming up with new investment ideas. He pitched a fund that would invest in tax receivable agreements. His bosses at Lone Star, with $86 billion under management, balked at the small size of the market. Lone Star encouraged him to start his own fund, and some of the firm’s partners were among his first investors, Lee said. Then the hard work of finding investments began. Building substantial positions in specific TRAs can mean tracking down dozens of people and persuading them each individually to sell their TRA rights.The firm finds people in public filings and plans its sales pitch. Lee likes to take people on walks with Taco, his five-year-old Corgi. He will hire athletes to make short Cameo videos to nudge deals over the line. One Duke University alumnus got a message from Jay Williams—star point guard of the school’s 2001 national-champion, men’s basketball team—imploring him to sell his TRA.Parallaxes is now pursuing deals that dwarf the size of its first fund. But with more money comes more potential headaches, such as the deal provision that had Lee chasing the 114 people behind 34 beneficiaries to a TRA. Parallaxes had seven days to get a majority of each entity’s owners to sign a document acknowledging the deal. Lee and his team got it done. Write to Ben Foldy at ben.foldy@wsj.com</t>
+  </si>
+  <si>
+    <t>ParisPerfume is heaven’s scent, yet it also allures the senses to the physical. “Parfums d’Orient” (“Perfumes of the Orient”) at the Institute of the Arab World in Paris, is a wide-ranging, innovative exploration of the trade routes and artisanal techniques of an olfactory world, and the unique role of perfume in Middle Eastern societies.Temporary exhibitions often amplify visual impressions with background music; the Middle East’s sonic signature, the twang of the oud and the pat of percussion, tickles the ears as you enter “Perfumes of the Orient.” If curators add touch to sight and sound, it is to entertain the children, though adults too might learn from handling, say, a lump of Roman marble or a sheet of medieval vellum. Museums mostly display visible objects. Perfume, however, becomes invisible once it leaves the bottle and gets to work. The curators, the Institute’s Hanna Boghanim and Agnès Carayon, hit this sensory challenge on the nose. The exhibition deploys nearly 200 physical objects, including manuscripts, paintings, photographs, videos, scent bottles, copper stills and retorts, and chunks of raw materials across two stories and five thematic spaces. At each stage, raw and combined scents are dispensed at the push of a button, so that we smell what we see.In “Sublime and Generous Nature,” the first space, a large map shows the ancient trade routes of the perfume business. The artifacts in the cabinet beneath it include an inscribed perfume burner from the fourth century B.C.; a Roman incense shovel from first-century A.D. Judea; stony ambergris from a whale’s head; a manjeb knife for scraping bark to expose the resin of the frankincense and myrrh trees; and lumps of their hardened brown sap.The signature vapors are a smoky blast of Bangladeshi oud wood, the pepper of frankincense, the sea salt and sewers of ambergris, and the earthy whiff of musk, whose provenance in the anal glands of otherwise unremarkable mammals is affirmed by a stuffed chevrotain deer, lent by Paris’s Museum of Natural History. A trio of glass towers contains leaves of damask rose, saffron and orange blossom. When you blow into a tower, you agitate the leaves and the contraption emits a floral blast. Even headier is a dark room with three terrariums of Lady of the Night, which releases its jasmine aroma only in darkness.Upstairs in “The Scents of the City,” we see and smell how perfume saturates the social life of the Arab world, from the souk to the kitchen to the bedroom. Vladimir Antaki’s bright photographs of the perfumers of Oman lead via some foul-smelling civet skins to the technical details in “Scientific,” the exhibition’s third space. The ancient method was enfleurage, scenting oils via maceration. The Arabs worked out how to distill perfumed water and essential oils using steam heat and copper alembics in the late eighth century. The Italians developed alcoholic distillation in the 13th century. In the 18th century, European chemists condensed the fragrant results into the “concrete,” a concentrated paste that could be diluted for mass production. In the 19th, the molecular manipulations of organic chemistry created affordable substitutes, much to the relief of civets and deer. We see a trumpet-like central column from ninth- or 10th-century Persia, alchemical retorts and condensation bottles, and Rirkrit Tiravanija’s 2015 reconstruction of an alembic after a drawing in al-Dimashqi’s 14th-century “Wonders of the World.” A case of colored-glass test tubes and scent bottles, including a rock-crystal glass donkey that distributes perfume from its pack, shows perfume’s penultimate destination, but again, the highlight is olfactory. Alembic-style copper pipes with bubbling canisters dispense three fragrances created by the perfumierChristopher Sheldrake. Amber Moon is sweet with benzoin balsam. Shamama presents the familiar Arab notes of oud, saffron and rose in an attar (an oil-based scent). Kyphi is a variation on a lost classic from Ancient Egypt, a dizzying blast of myrrh with notes of cinnamon and honey.The Egyptians called perfume “the sweat of the gods.” The ancient Jews shoveled on the incense in their temple, and many Christians still burn it in their churches. But the austerities of Islam exclude perfumed offerings, making scent a solely secular pleasure for Muslims. In the exhibition’s fourth space, a burner dispenses incense to oud-and-vocal adaptations from the biblical “Song of Songs,” and Yumna al-Arashi’s “Shedding Skin” video gives a prurient peek into a hammam bathhouse. This awkward juxtaposition of religion and sex reeks of the persistent kinkiness of French orientalism; “Perfumes of the Orient” was commissioned by the Institute’s director, the socialist politician and former culture minister Jack Lang.Back in the real world, the odor of sanctity becomes the smells of the bedroom and the kitchen. In the final space, “Home,” the nasal palate is refreshed by kitchen smells (cinnamon, cumin, almond, and the cardamom in Turkish coffee). Visitors waft out on a wave of another Sheldrake concoction, “Secrets of the Alcove” (notes of plum and saffron). The scent’s memory lingers in the mind, and on the clothes, long after you leave this ingenious exhibition.</t>
+  </si>
+  <si>
+    <t>Late in the first quarter of Michigan’s showdown with Ohio State last month, offensive coordinator Sherrone Moore felt that the Wolverines were in need of a lift.Fortunately, he knew just where to find one. Moore reached for a white pinkie-sized packet, lifted it to his nose, and inhaled deeply. Then he offered it to several Michigan players who took a hit of their own.The packet contained smelling salts, used for centuries to revive people after fainting. More recently, fully conscious athletes have used them for a different purpose: to gain a jolt of clarity and energy. They are legal under NCAA rules.That day, the Wolverines beat the Buckeyes for the third time in three seasons, cementing their place among college football’s elite after years in the wilderness. Smelling salts didn’t revive Michigan’s program, and the Wolverines are far from the only college football team to use them. But the Wolverines’ resurgence has coincided with a period in which Michigan’s players have used smelling salts liberally—before games, on the sideline, and even during practice.“The guys love it,” Moore said. “It brings in that kind of mindset, wakes them up a little bit.” Moore, who played offensive line at Oklahoma in the mid-2000s, said he used smelling salts as a player, too.Scientific research finds little if any measurable performance benefit to using smelling salts. The ammonia contained in smelling salts irritates the membranes in the nose and lungs, triggering an inhalation reflex and sending lots of oxygen to the brain. That can smooth respiratory flow and make people more alert—albeit briefly.But the lack of evidence that they provide a boost hasn’t stopped athletes from adopting smelling salts as a get-ready ritual. “It’s just like a shock to your brain,” said Michigan offensive lineman LaDarius Henderson, a transfer who said he’d also used smelling salts at his previous school, Arizona State. “It’s just like, ‘Let’s go!’”Smelling salts were once used to revive unconscious or woozy players, but that practice has fallen out of favor because the inhalants can mask the symptoms of a concussion. Doctors also warn against the use of smelling salts by people with asthma or neck injuries, since the sharp smell of ammonia can cause one’s head to recoil violently. None of which dissuaded Michigan from reaching for the smelling salts a few years ago, when the Wolverines needed a wake-up call. As Michigan struggled through a 2-4 pandemic-shortened 2020 season, “we were not a good football team,” offensive lineman Trevor Keegan recalled. “We weren’t tough. We were sloppy. And nobody cared.”In spring 2021, looking to instill some toughness, Michigan’s coaches rebranded a physical, run-centered 9-on-7 exercise as the “Beat Ohio” drill. They also turned it into a spectacle. They signaled its start by playing the siren sound from the film “The Purge,” and blasted music. Players inhaled smelling salts. Keegan said the resulting scene looked like the film the ultraviolent action movie “300.”“I’m telling you, it was not even football,” Keegan said. “It was insane. I feel like that’s really just trickled down, and that drill has really been a huge thing for our success.”Since then, Michigan’s offensive line has become the bedrock of the Wolverines’ attack. Michigan’s total offense went from No. 66 nationally in 2020—behind Western, Eastern and Central Michigan—to No. 14 this season. Michigan’s passing accuracy went from 91st to second. Michigan won the Joe Moore Award given to college football’s top offensive line in 2021 and 2022, and was a semifinalist for it this year.The offensive line’s approach was contagious. In a 2021 game against Nebraska, Michigan kicker Jake Moody—now with the San Francisco 49ers—took a whiff of smelling salts before nailing the game-winning field goal. Players from the NFL to top soccer leagues have used smelling salts in recent years, and they’re common on NHL benches. Ron Zook, who has held football assistant coaching jobs with several NFL teams and multiple colleges and was head coach at Florida and Illinois, said, “Most places I’ve been, you see it.” They are also a popular pre-lift push for weightlifters, said Vince Gazzara, a powerlifter and owner of Vince’s Muscle Shop in Columbus, Ohio.“It’s like if somebody was shooting at you—only this is a lot less violent,” Gazzara said.Anthony Alessi, UConn clinical professor of neurology and orthopedic surgery, said ammonia inhalants are unlikely to cause problems when used in moderation.“It’s not addictive, it’s not a hallucinogen,” said Alessi, who’s also served as a neurologic consultant for the UConn Huskies and the New York Yankees. “Is it doing them any harm, sniffing this on the sideline? Probably not.”Jonathan Fader, a New York-based sports psychologist, said he had nothing against smelling salts but that other approaches could yield better results. For example, he said, visualization or meditation, which Michigan quarterback J.J. McCarthy practices before every game, also can focus and energize athletes to perform.Still, Fader said, using smelling salts could be a bonding exercise between teammates and act as a mental trigger—like the Disney elephant who thought holding a feather made him fly.“I think that it’s one of those things where it’s more of a Dumbo’s feather,” Fader said. “It’s just one that has a powerful tickle.”Write to Rachel Bachman at Rachel.Bachman@wsj.com</t>
+  </si>
+  <si>
+    <t>JERSEY CITY, N.J.—Miami Dolphins wide receiver Tyreek Hill recently marked a 78-yard touchdown with an unusual celebration. He and teammates imitated riding a roller coaster, sitting on the field with their arms waving overhead.More than 200 miles away, sports-betting company FanDuel’s sports-trading desk was riding its own waves that Sunday afternoon. The traders on duty—self-professed sports buffs with a knack for math—were trying to predict how National Football League athletes and teams would perform that day. Sports-trading desks are similar to equity-trading desks on Wall Street, which enable investors to buy and sell stocks and bonds. However, the sports desks create odds to influence and entice bets in a live market where hundreds of millions of dollars are exchanged on American athletic events.Hill’s seconds-long run into the endzone meant a $68,000 hit to the sportsbook on customer bets on whether he would score the first touchdown of the game. Immediately, bettors’ money started rolling in on Hill to score more touchdowns and gain more yards.The Dolphins ended up trouncing the Washington Commanders 45-15. FanDuel lost $1 million on the game.“You have good days, bad days,” said Will Twinn, a lead FanDuel sports trader that day. “It’s really about getting the prices right and let the cards fall where they may.”Sports betting has become big business for gambling companies, sports leagues and media outlets over the past five years. By the time your finger taps the glass of a smartphone screen to place a bet, a sportsbook trading desk powered by algorithms and raw data on past and current games has made its best guess of what is likely to play out on the field.FanDuel’s algorithm simulates each play of a football game 10,000 times to try to predict the outcome, who might score a touchdown or how many yards a wide receiver might get.While financial markets typically operate within set trading windows, sportsbooks add new markets—additional betting offerings—around the clock. If a trader needs to step away for a quick break, another steps in.On the recent Sunday, FanDuel took in more than $200 million bets on NFL games. That figure is the total amount customers placed in bets that day, before winnings were paid out.As one FanDuel trader rushed to shift the Dolphins’ odds after Hill’s touchdown, another monitored the New England Patriots’ matchup with the Los Angeles Chargers. Patriots running back Rhamondre Stevenson had to be helped off the field after an ankle injury.The trader immediately started adjusting the odds, making it more likely that Stevenson’s backup would score. “That’s information we didn’t know 15 minutes ago,” Twinn said.Sports-betting companies must strike a balance between protecting the business’s bottom line and setting prices—the possible winnings—appealing enough that customers will want to make a bet. The more accurately a company can predict what will happen, the more money they stand to make. It is a science and an art.Just as financial trading desks pipe in securities prices from stock exchanges, sports desks rely on data feeds from the NFL.FanDuel said it takes about 1.5 seconds to receive the data point—what happened on the field—and about 1 second for its model to process the data and push out new odds. That information travels faster than the game broadcasts and streams viewers watch at home.The basic tenet of gambling—that the house always wins—lives on. While any given day might be a win or a loss for a sportsbook, overall, FanDuel said it makes about 11.5% in revenue from the total bets it accepts, after paying out winning bets.FanDuel is owned by Flutter Entertainment, a Dublin-based gambling operator with popular brands in Europe and Australia. FanDuel was a daily fantasy-sports company when the Supreme Court issued a ruling in 2018 that ushered in a new era of gambling in the U.S. States beyond Nevada could legalize sports betting, and many state governments rushed in.For Flutter and FanDuel, the challenge was establishing a trading desk from a talent pool in the U.S. with little experience in sports betting. Twinn, who started as a trader at Flutter’s Sportsbet in Australia, moved to the U.S. in 2019. He left the company shortly after the Dolphins-Commanders game.On the recent Sunday, when several NFL games were scheduled to start at 1 p.m. ET, traders in Flutter’s offices in Dublin took the first shift. They monitored pregame news from around 2 a.m. ET and began adjusting the day’s odds. The Jersey City traders then took over, and by Sunday Night Football, the sportsbook was in the hands of traders in Melbourne, Australia.Spencer Diaz, in his second NFL season as a FanDuel trader, sat in front of a half-dozen screens at his desk. One featured a high-speed video stream from the NFL of his assigned game, the Dolphins against the Commanders. Another showed a grid of odds from other sportsbooks for a view of the market trends. A third displayed FanDuel’s automated system, where traders can compare the FanDuel’s modeling with what is playing out on the field.Diaz, a lifelong sports fan, picked working at FanDuel over going to law school. He said taking over responsibility for a game was, at first, “a bit nerve-wracking seeing all the money coming in.”The Dolphins were favored to win at kickoff by 8.5 points, which shifted to 17 points as the game progressed. After Hill scored another touchdown, FanDuel decided the odds favored Miami to have a more decisive win, by a margin of about 22 points.Ed Miller, who co-founded a company that automates sportsbook pricing for gambling companies, said the modern sportsbook is a far cry from Las Vegas-style sports betting in which human bookmakers made the calculations and you might find a white board with a game’s odds written on it.FanDuel, which is going head-to-head with DraftKings for the No. 1 position in the sports-betting market, asserted its dominance with help of a now-ubiquitous product: the single-game parlay. A bettor can string together several bets on one game, including how specific players will perform.The chances of winning—that each leg of the parlay will, in fact, happen in the game—lean heavily in favor of the house. The appeal of a big cashout, though, has maintained its popularity.For example, when the Baltimore Ravens played the Jacksonville Jaguars on Dec. 17, FanDuel offered a seven-leg parlay on how five star players would perform in passing yards, receiving yards, rushing yards and touchdowns. A $10 wager would win $457. (The athletes’ performances didn’t pan out that way, and no customers won.)A more straightforward bet that total points scored in the game would be more than 41.5 generated about $9 in winnings on a $10 bet.Write to Katherine Sayre at katherine.sayre@wsj.com</t>
+  </si>
+  <si>
+    <t>In 2024, the U.S. election season will enter full swing against a backdrop of political polarization. With tensions high—and partisans frequently taking their grievances to the streets—some business leaders and advisers are looking warily at the risks.Many U.S. cities last year saw large demonstrations on contentious topics, from abortion to climate change to the conflict in Gaza. Public protest on political issues is a quintessentially American activity, though not always cost-free. U.S. business leaders right now rank escalating political polarization generally as their second most important emerging risk worry after generative artificial intelligence, according to a report published recently by Gartner, a research firm that surveyed senior executives and risk managers. The polarization those executives referred to in that survey isn’t necessarily among just the public—the definition used in the question included risks of polarization in government itself. More than a third of board members said that U.S. election and political uncertainties pose the greatest risk to their company’s operations or outlook, according to a survey released in December by risk and compliance software company Diligent and information provider Corporate Board Member. “The last few years have made everyone aware,” said Tarique Nageer, a managing director at brokerage and risk advisory firm Marsh.Many Americans are worried about the potential for political violence. In a survey by progressive-aligned Navigator Research released last month, 83% of respondents said they are concerned about political violence today. Nearly a quarter of Americans think “patriots” may have to resort to violence to “save” the country, according to a survey released in October by the Public Religion Research Institute in partnership with the Brookings Institution.The Boston Tea Party, one of the most enduring examples of U.S. popular unrest, destroyed about $1.7 million worth of tea in current dollars, according to the Boston Tea Party Museum. More recently, the sometimes disruptive protests in the wake of George Floyd’s murder caused estimated insured losses of greater than $2 billion, according to one estimate by the World Economic Forum in a 2021 report. The Capitol attack of Jan. 6, 2021, caused estimated losses of $2.9 million to the government, but also helped change the way many business leaders think about political unrest.The 2024 election could yet be a snooze compared with the high-temperature votes of 2016 and 2020. But political violence experts at insurance and consulting firms are also considering the possibility of a close and acrimonious contest that riles the faithful of both parties. Businesses in cities are often on the front lines. Starbucks locations have been recently vandalized by protesters motivated by the Israel-Hamas war. Chief Executive Laxman Narasimhan said the protesters have the wrong impression of the company and its beliefs. Target temporarily shut down 175 stores in May 2020 amid protests after George Floyd’s murder. In the run-up to the 2020 election, retailer Walmart temporarily pulled guns and ammunition from store shelves in anticipation of potential unrest. Representatives for Target and Walmart didn’t respond to requests for comment.Businesses have tools to try to fortify themselves against local protests. Perhaps the simplest is plywood, which became ubiquitous in some locales after 2020s summer of protests. Some New York businesses had plywood available ahead of the 2020 election after the city police department warned them to take precautions for election protests.The Hotel Association of New York City will try to push awareness during the election season and reinforce the use of good procedures among its members, said Vijay Dandapani, the trade group’s president. Many hotels in the city supplement security staff with “extensive electronic monitoring” to ensure public safety, he said.Retailers already facing concerns over high levels of theft are prepared to cooperate with law-enforcement to thwart future violence, said Brian Dodge, the president of the Retail Industry Leaders Association, a trade group.“We understand that societal tensions can run high during presidential election years, but lawlessness cannot be tolerated,” he said.Some businesses also turn to third-party vendors that can provide real-time alerts on unfolding situations, including protests. AlertMedia, a software company in Austin, Texas, assesses threats and provides tools for subscribers to push out mass notifications to employees based on their location. That company sent out 20% more alerts about medium- and high-severity demonstrations in 2023 than 2022, said Sara Pratley, senior vice president of global intelligence at AlertMedia. “The increase in demonstrations and protests we’re observing globally will likely be true in the U.S. as well, particularly as we approach the primaries, large-scale campaign events and the general election,” Pratley said.Some risk experts have tried to model the risk of disruption to business from unrest. Verisk Maplecroft, a risk intelligence group, has created a forecasting tool that takes into account 10 variables, such as the frequency of police killings, inflation, inequality and unemployment. The model assigns a single score for a country’s risk of losses from strikes, riots and civil commotion—what the risk and insurance sectors call SRCC.Under Maplecroft’s model, the U.S. is currently rated as a moderate risk.Political violence in the U.S. remains rare, said Robert Munks, Maplecroft’s principal Americas analyst. But “the amplification effect of disinformation on social media is likely to reach new levels,” said Munks. Insurance, though it doesn’t prevent loss, can help businesses recoup damages. Some companies in potential hot spots, though, may see higher premiums and higher deductibles as insurers look to the election, said Srdjan Todorovic, head of political violence &amp; hostile environment solutions at insurer Allianz Commercial.  “You’ve got a very high exposure to city centers,” said Todorovic. “You’re probably going to experience rate increases because of that riot risk going into the election year.”Write to Richard Vanderford at Richard.Vanderford@wsj.com</t>
+  </si>
+  <si>
+    <t>China hawks have the upper hand in the political battle over electric vehicles. They should be wary of overplaying it.The rules for getting a tax credit on EV purchases in the U.S. changed recently. One difference will help stimulate sales: The credit, worth up to $7,500, is now available at the point of sale rather than at the end of the tax year, meaning it can be used as part of a down payment. Other changes will have the opposite effect. Among new sourcing requirements designed to foster a North American supply chain, battery components manufactured in China, the world’s largest supplier, now make models ineligible.The rear-wheel-drive and long-range versions of Tesla’s TSLA -1.86%decrease; red down pointing triangle Model 3 just lost the credit as a result. So did the Cadillac Lyriq and Chevrolet Blazer EVs made by General Motors GM -0.77%decrease; red down pointing triangle, at least temporarily while the company accelerates alternative sourcing arrangements. Ford Motor’s Mustang Mach-E no longer qualifies for the half share of the subsidy.Although the rules have been known for well over a year as part of President Biden’s 2022 Inflation Reduction Act, the Treasury Department only came up with detailed guidance a few weeks ago. Carmakers generally wanted a looser view so that more EVs would qualify at a lower cost. So did many environmentalists, who are eager to see more affordable EVs. They were pitched in a lobbying battle against national-security hawks, who are worried about replacing a reliance on Saudi oil with battery supply chains dominated by China.In the end, the bill’s interpretation reflected the same spirit of political compromise that brought it to law, but if anything it leans toward the hawks. Chinese companies have to own less than 25% of a battery-parts producer to avoid disqualifying a vehicle. This rules out all but the most lopsided joint ventures, though it does leave the door open to technology licensing—the approach Ford is pursuing with the Chinese battery giant CATL at a new plant in Michigan. EV tax credits aren’t the only evidence of how China hawks are prevailing in Washington. Just before Christmas, The Wall Street Journal reported that the Biden administration is considering an increase in import taxes on Chinese EVs, even though they are already high at 27.5% and hardly any Chinese EVs are currently imported (models by Polestar are an exception).And it isn’t just Washington. The French government recently introduced restrictions on its own EV subsidies that exclude products imported from China, such as those of the Chinese state automaker SAIC Motor 600104 0.07%increase; green up pointing triangle, as well as Tesla’s Model 3, which is currently shipped to Europe from Shanghai. Paris framed its restriction as an environmental one, on the basis that made-in-China EVs cost a lot of carbon to make and bring to Europe.Meanwhile, the European Union is considering an increase in tariffs on EVs imported from China. A few months ago it launched an investigation into the potential “illegal subsidization” of EVs that might cause “economic injury” to its own producers. The most feared Chinese producer isn’t waiting for the results. Just before Christmas, BYD, China’s answer to Tesla, said it would build its first European car factory in Szeged, Hungary.Beijing itself continues to support the technology. In June, it said it would extend a tax break for EV purchases by another four years. In 2024 and 2025, the exemption will be worth 10% of the vehicle price or up to 30,000 yuan, equivalent to $4,200, after which it will be halved.Excluding Chinese companies from Western EV handouts is something politicians on both sides of the Atlantic can agree on. With 2024 set to be a record year for elections globally—Americans aren’t the only ones who will head to the polls—this seems unlikely to change. The risk is that the West cuts off its nose to spite its face. Slow down the shift to EVs too much to build local supply chains and give domestic manufacturers time to adapt, and Chinese technology might simply pull farther ahead, supported by a huge, generously subsidized domestic market and exports to emerging economies.It will be hard for the West to strike the right balance between protecting domestic supply chains and creating globally competitive ones.Write to Stephen Wilmot at stephen.wilmot@wsj.com</t>
+  </si>
+  <si>
+    <t>From 2019 to 2022, a new type of real-estate fund became one of the hottest fundraising juggernauts on Wall Street by giving individual investors the chance to participate in soaring values of apartment buildings, warehouses and other types of commercial property.Last year, those funds, known as nontraded real-estate investment trusts, ran off the rails. As concerns increased about the troubled commercial-property market, fundraising plummeted by the funds’ sponsors, many of them giant investment firms such as Blackstone and Starwood Capital Group.Meanwhile, redemptions soared as shareholders rushed to cash out. Sponsors were hit by so many redemption requests at the same time, they had to implement fund rules limiting the rate with which people could get their money back during such runs.Like public REITs, nontraded REITs buy commercial property allowing investors to share in their incomes and increases in value. They are also known for paying high dividends. The main difference is that shares in public REITs are traded on stock exchanges, while investments in nontraded REITs are made mostly by individuals through financial advisers.Nontraded REITs raised $9.8 billion last year through November, compared with $33.2 billion during all of 2022, according to Robert A. Stanger &amp; Co., an investment-banking firm that tracks the industry. Meanwhile, investors redeemed about $17.4 billion through November, far surpassing the $12 billion redeemed in all of 2022, Stanger said.Redemptions slowed toward the end of 2023. But outflows are expected to continue to exceed funds raised as 2024 begins, making the business a symbol of one of the worst downturns to hit the commercial-property industry since World War II.The strain in the nontraded REIT business also has fueled a debate over whether the funds are accurately valuing the property they own. The values of nontraded REIT shares have fallen but at a much smaller amount than shares of many public REITs.Sponsors say their valuations accurately reflect the market and the property they own. But others say redemption requests are so high and the funds’ new fundraising is so low partly because investors think nontraded REITs haven’t reduced the value of their shares enough.The values have “held up while the rest of the real-estate universe has adjusted downward by a much bigger margin,” said Kevin Gannon, Stanger’s chief executive. “There’s skepticism by investors that those [values] are fully reflective of the price changes.”The imbalance between inflows and redemptions has helped push the net asset value for all nontraded REITs down to $96 billion from the peak of $110 billion a year ago, Stanger said. It also has put pressure on the sponsors to sell assets to meet redemption requests.Blackstone’s fund, the largest in the nontraded-REIT industry by far, has sold $16 billion of real-estate assets at a premium to their book valuations since 2022, Blackstone said. Sales last year included the JW Marriott San Antonio Hill Country Resort &amp; Spa and a 22% stake in the Bellagio, a Las Vegas casino and resort. Both deals yielded big profits, the company said.The good news for many of the funds is that the imbalance between inflows and outflows has been getting smaller in recent months. Sponsors also point out that conditions are improving, with many investors having a shorter wait to get their money back.“Shareholders who began submitting repurchase requests just two months ago have already received nearly all of their money back,” Blackstone said in a December letter to investors in Blackstone Real Estate Income Trust.Still, if the imbalance continues, so will pressure on some nontraded REITs to sell assets. “If this thing doesn’t turn around they’re going to have to keep hitting the asset-sale button,” Gannon said.Public and private REITs have been hurt by the commercial-property downturn, caused largely by high interest rates that raise borrowing costs for landlords. While rates have started to fall, few observers expect them to drop far enough in 2024 to ease the strain in many property sectors. Commercial real estate also is facing other pressures, such as a rise in foreclosures and a decline in lending.High interest rates have removed one of the big attractions of nontraded REITs: their high dividends in the 5% range. Other investments such as bonds and certificates of deposit are much more competitive now than they were when rates were at historical lows.Nontraded REITs also have lost their appeal because their share prices haven’t fallen as much as public REITs, analysts say.Fund sponsors say their valuations are higher than many of the public REITs because they own better-quality properties. Blackstone’s December letter to investors said that its fund mostly owns real estate in hot sectors such as industrial property and data centers. “We also have virtually no exposure to challenged sectors such as commodity office…and regional malls,” the letter said.But the funds’ higher share prices give existing shareholders an incentive to cash out if they are worried that continued woes in the commercial-property industry will push values further down, analysts point out.Investors also are likely reluctant to invest new money into the funds for the same reason. They might feel that, unlike shares in public REITs, fund shares aren’t being sold at enough of a discount to justify taking a risk in commercial property, analysts say. “Investors are saying they’re not buying [the funds’ valuations] because they’re not giving them money and they’re redeeming like gangbusters,” Gannon said.Write to Peter Grant at peter.grant@wsj.com</t>
+  </si>
+  <si>
+    <t>Suze Orman, one of the most famous financial advisers in America, doesn’t believe your money should control you.“I hate budgets,” said Orman, 72, comparing them to diets. “If you restrict, you limit, you cut back, you don’t buy this, you don’t buy that, and then all of a sudden you explode and you go out and you buy everything at once.” She abhors New Year’s resolutions for similar reasons; she doesn’t want people to set themselves up for failure. Rather than setting big financial goals for 2024, she recommends asking yourself a question: Do you feel powerful and secure?“If you don’t, just do one thing that might make you feel more secure,” she said. “Is that saving $10? Is that not going out to eat?” Orman, a best-selling author and host of the podcast “Women &amp; Money,” grew up in Chicago. She got her start in finance as a broker at Merrill Lynch before founding the Suze Orman Financial Group. In 2020, she co-founded SecureSave, an employer-sponsored emergency-savings program. These days, Orman lives in the Bahamas with her wife, Kathy Travis, who goes by KT. Here, Orman talks about her fishing hobby, running her own business and meeting Kristen Wiig. What time do you get up on Mondays?I always wake up at two times: either 3:30 or 4:45 a.m. I don’t know why that is. KT, my spouse, says, “You have jumped the gun.” By 5 o’clock, we’re definitely up and about. What’s the first thing you do after waking up?Check the news. I want to see the world is still here. The most important thing I check is the weather report on this app, Windfinder Plus. I find out what the winds and the seas are going to be like for the entire week so I know if we have fishing days or we don’t. No work is to be scheduled on fishing days, period. What’s your biggest catch of all time?A wahoo that’s 60 pounds. They’re one of the top 10 hardest fish in the world to catch. Going back to morning routines, how do you like your coffee?I do Cafe Bustelo coffee every morning. I would drop dead before I bought a coffee. I do one cup a day and that’s it. What’s the most important thing you delegate to your assistant or team?The entire empire is run by KT and myself. We are 10 times more efficient, time-wise and money-wise, than all these people who have everybody taking 15% from them here, 20% from there. What do you like to splurge on?I seriously splurge on private air. Unless we go to Europe or something because that’s ridiculous. Where do you like to pinch pennies? I refuse to eat out. I think that eating out on any level is one of the biggest wastes of money out there. A lot of people feel they can’t save money right now. How would you challenge that notion?You have to live below your means but within your needs. When “9 Steps to Financial Freedom” really hit, I bought a $250,000 apartment in New York City. I could afford a $1 or $2 million penthouse at that time. The question is, when do you buy what you can afford versus what you need when you can afford more than what you need?KT and I ask ourselves the question, Is this a want or a need? Do that every time for the next three months. Just try it. What do young people tend to get wrong about their finances? They don’t understand the value of compounding and that the key to their financial independence is their age. Let’s say you’re 25 and you put $100 a month into a Standard &amp; Poor’s 500 index fund through a Roth IRA every single month for 12 months, every year, until you are 65. It’s very probable that you will average a 12% annual rate of return over 40 years. At the end of those years, you have a million dollars. You wait 10 years until you’re 35? At the age of 65, you’ll have $300,000. [Young people] don’t get that. They would rather dress cool, go on their TikToks. What’s the secret to a happy marriage? Nothing is done with money that we both don’t agree on. What do you wear when you want to feel powerful? All black.Have you ever talked to Kristen Wiig about playing you on “Saturday Night Live”? You bet. She did something about my tan [once]. I was in the audience [another time] she did it. I had on this gold top that was easily opened. So, she was kind of in a corner, and I went up to her and I said, “Miss Wiig.” I could tell she was nervous. I said, “I just want to tell you something.” I was really stern. I said this, and I opened up my whole top.You flashed her.Yeah, and I said, “It’s a real tan. It’s not sprayed.” What have you been reading and watching lately? I love “The Gilded Age.” I also loved “All the Light We Cannot See.” I just watched “Squid Game,” the new competition one. I’m not sure what I thought of that. And I love football. I only love Kansas City. I have to admit that this whole thing with [Travis] Kelce and everything, it’s taken it away from me a little bit. It’s like, can you just concentrate on all the guys on the team? I love Taylor Swift, but can we just go back to regular football here?I used to love the Miami Heat. You know, I was responsible for getting LeBron James and Chris Bosh on the Miami Heat.I did not know that.This was way back when. Pat Riley [president of the Heat] contacted KT when they wanted to keep Dwyane Wade and bring the other two over. He asked me, could I figure out how to do that? I met with all the accountants, and I figured out by being a Florida resident, how much more money they would make [without state income taxes]. We videotaped me saying, “How would you like to make an extra $15 million a year and not play one more game, not do one more endorsement, anything?” In the end I said, “Are you man enough to take the heat?” And that was put on a little iPod and sent to them. It’s because their mothers love me.What’s a piece of advice you’ve gotten that’s been important to you?Oprah told me never to be filmed while I was sitting on a toilet.Write to Lane Florsheim at lane.florsheim@wsj.com</t>
+  </si>
+  <si>
+    <t>WASHINGTON—The fight over federal abortion policy is heating up over a new question: whether tax dollars should flow to pregnancy resource centers that counsel women against abortions.States use about $16.5 billion annually from a federal program designed to assist low-income families with children to move toward financial self-sufficiency. To help reach that goal, grants must accomplish specific purposes such as promoting job training and marriage, preventing out-of-wedlock pregnancies, and encouraging two-parent families.The fixed grants finance state initiatives including time-limited, monthly cash payments to families. Some states also funnel money to centers that provide support to pregnant women and discourage them from getting abortions.Now, the Biden administration is asserting in a proposed federal rule that resource centers that largely provide pregnancy counseling to women only after they become pregnant likely don’t meet the program’s aim of preventing out-of-wedlock pregnancies. A senior administration official said the Department of Health and Human Services, or HHS, is merely clarifying that pregnancy counseling and other programs that apply only after someone is pregnant don’t prevent and reduce pregnancies as required by federal law.The proposed rule wouldn’t ban the use of all of the grant funds for crisis pregnancy centers and some supportive services, such as providing diapers to expectant mothers, might be allowable, the official said. The proposed rule also doesn’t stop states from using their own funds for crisis pregnancy facilities.Conservatives and antiabortion groups are fighting back. Some officials at the centers, which often rely on more than one funding source, said they would have to increase private donations and scale back services. Antiabortion groups said some centers could face possible closure. States also must contribute their own funds to the program.“It’s about helping moms, dads and babies,” said GOP Pennsylvania State Rep. Kate Klunk. “I see this as political, as a way to curry favor with pro-choice women heading into an election.”The money comes from a program called Temporary Assistance for Needy Families, or TANF. The federal assistance program was launched in 1997, replacing Aid to Families With Dependent Children, and it grants states some flexibility in how they operate and provide support to help low-income families.HHS wants states that use the federal money to help fund the centers to show how that spending meets the purpose of the program, and the agency also wants to require the states to provide research backing up those claims. Conservative lawmakers and antiabortion groups said that would imperil some pregnancy resource centers. Specifically, they fear it will halt federal taxpayer funding to centers in Missouri, Louisiana and Indiana, three states that provide the centers with TANF funds. Pennsylvania had also done so, but halted such funding as of the end of 2023 after abortion-rights groups advocated for the change.A senior HHS official said the agency is now reviewing public comments on the proposal. The agency said in the proposed rule that programs that solely or primarily provide pregnancy counseling to women after they become pregnant likely don’t meet TANF goals “because the connection to preventing and reducing out-of-wedlock pregnancies is tenuous or nonexistent.”Abortion-rights groups have long accused pregnancy resource centers of providing misleading information about abortions. The American College of Obstetricians and Gynecologists said the pregnancy centers use “deception, delay tactics, and disinformation” and endanger public health by causing delays in “accessing legitimate healthcare.”HHS Secretary Xavier Becerra was serving as California attorney general when the state required all of its 200 pregnancy resource centers to display written information about free and low-cost abortions. The U.S. Supreme Court in 2018 ruled that the California law violated the First Amendment.Planned Parenthood Federation of America said it supports the proposal in a comment letter to the administration.“These centers target their marketing toward young people, people of color and people with low incomes, exploiting them by offering free services in exchange for participation in abstinence or religious seminars,” the organization said in its letter.Directors of some of the pregnancy centers said they are being unfairly maligned. They said they discuss with clients how to prevent future unwanted pregnancies, which they argue fits the mission of the TANF program. The U.S. Conference of Catholic Bishops in December urged the public to petition the Biden administration to drop its proposed funding restrictions on the centers. Congressional Republicans, such as Sen. Cindy Hyde-Smith of Mississippi and Rep. Christopher Smith of New Jersey, led a comment letter urging HHS to drop the proposal, saying pregnancy centers save taxpayers many millions of dollars through the work they perform.A Woman’s Concern, a pregnancy resource center in Lancaster, Pa., has nurses and a fetal medicine doctor. Executive Director Jill Hartman said they provide a free ultrasound to confirm viability of the fetus and to determine gestational age.She said it can be a health risk if the woman leaves and takes abortion pills if she is far along. The pills, mifepristone and misoprostol, are commonly used together and the regime is approved by the Food and Drug Administration through 10 weeks of gestation.Hartman said the center connects women with resources, group classes on parenting, and supplies such as car seats and clothes. Pennsylvania Gov. Josh Shapiro, a Democrat, said he would end a contract on Dec. 31, 2023, that provided TANF funds to a group that runs pregnancy resource centers in the state. Hartman said she is working to cut expenses to cope with the financial loss from the decision and the looming Biden administration proposal.Such a cut could affect future couples such as Nicholas Luccarella and Lindsay Smith, who relied on A Woman’s Concern when Smith was pregnant with their son Rocky, who is now 15 months old. The pregnancy was planned, she said. She was able to get credit by taking parenting classes that she could redeem at the center’s boutique.“We didn’t have to buy diapers till after his first birthday,” said Smith, 34, a bank teller. “We got a stroller, car seats and a little bathtub that we earned by going to meetings with my advocate and the dads group.”Write to Stephanie Armour at Stephanie.Armour@wsj.com</t>
+  </si>
+  <si>
+    <t>When Aaron Rodgers tore his Achilles tendon on his first drive as quarterback of the New York Jets, it wasn’t simply another catastrophe for a woebegone franchise. It also served as a grim omen for the rest of the NFL. Over the course of the rest of the 2023 season, star quarterbacks that franchises had invested fortunes in continued to go down and to not get back up again. When the likes of the Cincinnati Bengals’ Joe Burrow and the Minnesota Vikings’ Kirk Cousins suffered season-ending injuries, their teams’ Super Bowl hopes plummeted instantaneously. But one team has defied this unfortunate trend and emerged as an even stronger contender. Even more improbably, that same team has one of the league’s most miserable histories at quarterback. The Cleveland Browns enter the final week of the season having already secured a playoff berth with one of the best records in the entire league. That’s because when they lost Deshaun Watson, the quarterback who they had bet their future on, they found a replacement off the scrap heap who has turned into one of the most unlikely sensations in NFL history. Joe Flacco, a 38-year-old who once won a title but whose career appeared finished, has Browns fans dreaming of their first Lombardi Trophy. One way of understanding the playoff picture a week away from the start of the postseason is by looking at which teams have managed to keep their quarterbacks upright. The Baltimore Ravens, who clinched the No. 1 seed in the AFC by blowing out the Miami Dolphins on Sunday, rose to the top because Lamar Jackson finally stayed healthy into December. Even the reigning-champion Kansas City Chiefs, who have looked uncharacteristically shaky, won their division and have a shot to win it all because Patrick Mahomes has played every game. The top of the standings this year is essentially a list of teams with healthy passers.  The Browns are a glaring exception. And what makes that especially remarkable is that they invested more than any team in NFL history in a quarterback—only to improve when he went down. “You think you’re coming into a good situation with a good team and there’s a possibility for this,” Flacco said recently, “but you never quite know.”When Cleveland traded for Watson from the Houston Texans in 2022, the blockbuster move was especially jarring because of the circumstances. Watson had just sat out the entire 2021 season while he wanted to be traded. At the same time, numerous women had sued him and accused him of sexual misconduct during massage therapy sessions. But that controversy wasn’t reflected in the extraordinary price the Browns paid to acquire him. Leaping at the rare opportunity to acquire a star quarterback still in his 20s, Cleveland dealt three first-round picks as part of a package to Houston—and then followed that up by giving Watson a groundbreaking contract worth a fully guaranteed $230 million over five years. It didn’t take long for that to go wrong. The allegations against Watson resulted in an 11-game suspension to start last season, and by the time he returned to the field, he looked rusty and ineffective.This season, Watson’s performance hardly resembled his heyday, but it was good enough for a club with arguably the best defense in the NFL. In the five games in which he took most of the snaps, Cleveland went 4-1.Then Watson suffered a season-ending shoulder surgery, leaving the Browns to turn to Dorian Thompson-Robinson, a rookie they had selected in the fourth round of the draft. It quickly became clear he wasn’t the answer. He tossed four interceptions before throwing for a touchdown, and it was apparent that the team needed someone else to keep the offense afloat. It was an unexpected twist when the Browns turned to Flacco after he spent most of the season on his couch, seemingly headed toward retirement. But what Flacco has done ever since taking over makes something else even more surprising: that nobody else had brought him in. Flacco, who was under center for the Baltimore Ravens for the majority of his career, spent the past few seasons mostly as a backup for the New York Jets. But the Jets never re-signed him, even after Rodgers got hurt, and instead let a season that began with title hopes unravel behind poor quarterback play. The Jets were hardly the only team whose fortunes were torpedoed by a hurt quarterback. This was a season when more than a billion dollars of passers were sidelined by injuries—and it has shaped the playoff race. The Los Angeles Chargers turned in a disappointing season while Justin Herbert played through a finger injury, before another finger injury ruled him out for the year. The Bengals’ hopes plunged when Burrow required wrist surgery, and they were officially eliminated from the playoffs Sunday when they lost to Kansas City. The Browns, though, are headed to the postseason despite losing Watson. And they are beginning to look more dangerous with Flacco under center than they did before he arrived. Cleveland has now won four straight games, including Thursday night’s 37-20 shellacking of the Jets, while Flacco has played like a gunslinger capable of beating any team in the postseason. In Flacco’s five starts, he has averaged 323 passing yards and thrown for 13 touchdowns. While his aggressiveness has produced eight interceptions, he has also shown his veteran savviness with a league-low sack rate. “He’s doing a nice job of playing within himself and playing within the scheme and all those type of things,” Browns coach Kevin Stefanski said, “but he’s also making plays,” It’s a rare feeling for a franchise that has often felt cursed, particularly at the quarterback position. But that script flipped entirely this season—because another quarterback calamity prompted them to sign Flacco. Write to Andrew Beaton at andrew.beaton@wsj.com</t>
+  </si>
+  <si>
+    <t>TEL AVIV—For a full week in late December, Noam Idan Ben-Ezra and more than a dozen other relatives of hostages abducted by Hamas on Oct. 7 camped outside Israeli military headquarters and made their message inescapable.Once every hour, the families and their supporters blocked vehicles from entering or exiting through the compound’s gate, while one read out the names of the 129 hostages still held in Gaza. The clock is ticking for their loved ones, they said, and Israel’s leaders need to do more to get them back.Ben-Ezra, who had given up her job as a high-school administrator to fight for the return of her brother, 49-year-old software engineer Tsachi Idan, has been marking every day since his abduction.“It’s been 77 days. This has to end,” she said during the blockade on Dec. 22.Families of Israeli hostages, brought together by tragedy and a shared mission, have applied steady pressure on their government to make the return of captives its priority. Most relatives maintain that no Israeli offer to Hamas is too costly if it brings the hostages home. For nearly three months, they have carried out their campaign in the media, in protest gatherings and in meetings with decision makers in Israel and abroad. On Thursday, representatives of 28 families met with Prime Minister Benjamin Netanyahu, who assured them he was doing all he could. President Biden hosted a smaller group in mid-December at the White House, where he told them U.S. efforts to bring everyone home wouldn’t cease. The White House at the time said that eight Americans remained captive inside Gaza. Hostage recovery has risen to the top of the Israeli government’s agenda because of the families, said Gideon Rahat, a political scientist at the Hebrew University of Jerusalem.“If they were not there, maybe the goal of destroying Hamas would be No. 1, and this would be two or three,” he said.The Netanyahu government must balance the pressure to recover the hostages with its declared goal of eradicating the threat of Hamas—an objective that also enjoys broad support in Israel following the Oct. 7 attack by the militant group on southern Israel. Furthering Israel’s challenge, militant groups other than Hamas are in control of some of the hostages.The families concluded that their message to Israel’s leadership was getting through in November when Israel halted its assault on Gaza and set free Palestinian prisoners in a deal that led to the release of 105 of approximately 240 hostages.After that deal broke down, families kept up the pressure, and Israeli officials followed in December with an offer to Hamas to stop fighting for one week and allow more aid into Gaza in return for 40 more hostages. Hamas, a group the U.S. designates a terrorist organization, rejected the offer, in an effort to pressure Israel to offer more concessions. Egypt has since offered a full peace proposal—which Israel’s government has been giving serious attention because its first phase includes a hostage-prisoner exchange.When the war with Hamas began, Israeli families were initially grappling with the atrocities of the Oct. 7 attacks and struggling to find out the status of the missing. Israeli authorities eventually determined that around 1,200 people had been killed, most of them civilians.Families of hostages soon figured out they needed to band together. A group of Israeli lawyers, media strategists and former diplomats stepped up to help. The most immediate need, they determined, was a way for families to find each other and exchange information. They established a call center, which became a support group, the Hostages and Missing Families Forum.As Israel launched its assault in Gaza, Netanyahu quickly appointed a hostage coordinator. But it would take a week for the prime minister to meet with families whose relatives had been kidnapped.A collective effort by families to support each other and come up with ways to make their voices heard globally picked up. An Israeli tech businessman whose daughter was killed on Oct. 7 donated office space to the Families Forum, which attracted thousands of volunteers. With the help of donations, the Forum spent several million dollars on advertisements on Google and Facebook, volunteers for the group said, and even bought screen time in New York’s Times Square. WhatsApp groups for the families started lighting up with updates on hostages and opportunities for relatives to appeal to media outlets and join delegations abroad. The Forum has organized about 100 international trips for families to meet with officials in Europe and the U.S., as well as the World Health Organization and the United Nations, according to Daniel Shek, a former Israeli ambassador to France.Shek got involved in the Forum early on, helping form a team of former diplomats and negotiators with experience in hostage situations. He said they have been able to float ideas to Israeli officials, while also contacting officials in the U.S., Europe and Egypt.A five-day walk in November from Tel Aviv to Netanyahu’s office in Jerusalem drew tens of thousands of supporters. Many families saw it as a turning point because a few days later, Israel struck the deal with Hamas to release dozens of women and children.The families’ campaign can be seen throughout Tel Aviv, with posters identifying kidnapped Israelis on display on street corners and in the airport arrivals terminal. A plaza in front of the Tel Aviv Museum of Art is now known as “Hostage Square,” with crowds, speeches and music every Saturday.The slogan “Bring Them Home Now” and paraphernalia such as yellow ribbons and black T-shirts featuring photos of hostages have helped attract supporters. Celebrities including Jerry Seinfeld have visited the plaza to show solidarity.The families concede they have no influence over Hamas, which says Israel needs to implement a cease-fire before any hostage negotiations resume. Some relatives say Israel needs to do just that to bring Hamas to the table. Others have called on the government to bus thousands of Palestinian prisoners to the border with Gaza to make clear its willingness to pay for the release of its hostages.Netanyahu has said that unrelenting military pressure on Hamas is what will get the hostages back, and Israel has refused to pause fighting before negotiations.On Dec. 15, the families were hit with another wave of anger and frustration when Israeli forces in Gaza mistakenly killed three Israeli hostages who had escaped.That night, hundreds of relatives and supporters gathered outside the Kirya building—the Tel Aviv military headquarters, and where Israel’s cabinet meets on a regular basis. “I was screaming at them,” said Zohar Avigdori, who had welcomed two family members back from captivity in November. “If now is not the time to be mad, when is?”The next day, the Families Forum helped set up about 20 tents outside the Kirya. Defense Minister Yoav Gallant and Benny Gantz, another member of Israel’s war cabinet, surprised families by coming to meet them at Hostage Square. Gantz offered assurances that Israel had the option to make a new offer to Hamas.On Thursday, the Israeli military said it had determined that the killing of the three hostages was preventable and that it had shared its findings with soldiers to avoid another hostage tragedy.Netanyahu, meeting the families that day, tried to reassure them of Israel’s commitment to reaching a hostage deal. “We are holding contacts at this very moment,” he said, according to a statement about the meeting. “We are working to return them all. This is our goal.”At the Kirya on a recent weekday, the families blocked the driveway at 29 minutes after each hour, to commemorate 6:29 a.m. on Oct. 7, when Hamas attacked Israel. Their blockade lasted 241 seconds, representing the number of hostages taken into Gaza that day.“I came here because I want a new deal,” said Eli Stivi, whose son Idan was abducted in the attack on the Nova music festival. “I don’t want to stop the war, but I want to start the talks.”The father, a tech entrepreneur, said he didn’t know whether his son was still alive. Of 129 hostages remaining in Gaza, 23 are dead, according to Israel.Stivi said he thinks about whether Idan is cold, wherever he is. Stivi got into his white Mercedes to drive home for Shabbat dinner. He would return, he said, to sleep in a tent that night.Write to Chao Deng at chao.deng@wsj.com</t>
+  </si>
+  <si>
+    <t>U.S. antitrust cases against tech giants Google and Meta Platforms META 1.30%increase; green up pointing triangle are expected to come to a head in 2024, likely producing long-awaited rulings that could shape the legacies of top Biden administration regulators.Silicon Valley and its critics have seen their patience tested on some of these cases. A U.S. antitrust case brought against Alphabet’s GOOGL 0.35%increase; green up pointing triangle Google unit in 2020 went to trial in 2023 and now heads to closing arguments in May.“I think 2024 could be a big year for the enforcers,” said Rebecca Allensworth, a professor at Vanderbilt Law School. “But as the U.S. v. Google case illustrates, it’s been slow going.”Here are significant cases courts are likely to render judgments on this year.The Justice Department made headlines in 2023 by going to trial on claims that Google’s search engine is an unlawful monopoly. It could be late 2024 before there is a verdict.When the nonjury trial ended in November after two months of testimony, U.S. District Judge Amit Mehta said he had “no idea” how he was going to rule on the question at the heart of the case: whether Google, which answers about 90% of all internet search queries worldwide, cemented its monopoly through unlawful agreements that make its search engine the default on Apple devices and other products.Mehta has scheduled closing arguments for early May. If he rules against Google, he will oversee a separate proceeding to determine how to restore competition in the search marketplace. Under U.S. antitrust laws, the judge could force Google to sell off parts of its business. But that approach is unlikely in this case, where there isn’t a corporate merger being challenged, some legal experts have said.Google has argued that its search engine dominates because it is a superior product that yields the most relevant search results. Its lawyers have happily pointed out that the top search query on Bing is the word “Google.”Google is also preparing for a trial early in 2024 over claims it is an illegal monopolist in the market for brokering ads on the internet. The Justice Department and a group of state attorneys general brought that case in January 2023. It is being heard in the Eastern District of Virginia, known as a “rocket docket” because of its relatively quick timetable for bringing cases to trial.“Have your running shoes on,” U.S. District Judge Leonie Brinkema in Alexandria, Va., told lawyers for both sides. She scheduled a pretrial conference for Jan. 18—six months earlier than the parties had suggested—and said she would then announce a trial date, which could be as early as March. The Justice Department asked the court to unwind Google’s “anticompetitive acquisitions,” such as its 2008 purchase of ad-serving company DoubleClick, and has called for the divestiture of its ad exchange.Google lost an early bid to dismiss the case in March 2023, when Brinkema said the Justice Department’s lawsuit was sufficiently detailed to proceed.Google also lost a bid to disqualify the Justice Department’s antitrust chief, Jonathan Kanter, from leading the ad-tech case based on his prior work in private practice for Google critics, including Yelp.Kanter has been one of Google’s main legal foes for nearly 15 years, a leader of a movement that sees big technology companies including Google, Amazon and Meta as monopolists in the tradition of the 19th-century railroad and oil companies that inspired the original antitrust laws.If the Federal Trade Commission gets its way, this could be the year of judgment for a major antitrust case against Meta Platforms. The FTC brought the case in December 2020, during the final weeks of the Trump administration.The FTC, which shares responsibility for enforcing antitrust laws with the Justice Department, alleges Meta, formerly known as Facebook, unlawfully sought to suppress competition by buying up potential rivals such as the messaging platform WhatsApp and image-sharing app Instagram. Meta has said those were procompetitive deals that benefited consumers.The case has moved slowly. In June 2021, U.S. District Judge James Boasberg dismissed the complaint originally filed under the Trump administration, saying the FTC hadn’t sufficiently backed up its allegation that Meta has monopoly power. After the agency beefed up and refiled the case, the judge said the agency could begin deposing witnesses.But when the FTC in December asked Boasberg to push the litigation forward, Meta’s lawyers countered that the case is “nowhere near trial.”“After delaying nearly a decade to challenge historical acquisitions that the agency reviewed in 2012 and 2014, the FTC has no basis to claim that this case is now urgent,” Meta’s lawyers said.While the case predates FTC Chair Lina Khan’s tenure, it will help define her legacy. Both before and since she took the post in 2021, Khan has argued in favor of blocking more deals, aggressively attacking monopolistic practices and potentially breaking up some of America’s largest companies, particularly in Big Tech.Meta has said Khan is biased, and sought to block her involvement in a different FTC case relating to Meta’s acquisition of the virtual-reality firm Within Unlimited. In that case, a federal judge denied the FTC’s request for an injunction halting the acquisition.  That decision, while a setback for the FTC, included some legal analysis that could help the agency bring similar cases involving nascent markets.Khan enters 2024 with a mixed record in court fights. In July, a federal judge ruled against the FTC and allowed Microsoft to go ahead with its $75 billion purchase of videogaming company Activision Blizzard.But in December, a federal appeals court agreed with the FTC that Illumina’s purchase of cancer-test developer Grail was anticompetitive, prompting the San Diego-based company to pursue what its CEO called an “expeditious divestiture” of Grail by the middle of 2024. And on the last business day of 2023, a judge blocked healthcare data provider IQVIA from buying the owner of pharmaceutical ad-technology company DeepIntent, agreeing with the FTC that there was “a reasonable probability that the proposed acquisition will substantially impair competition in the relevant market.”Those rulings don’t mean that Khan and Kanter will succeed in persuading more courts to buy in this year to their broader take on antitrust law. “It’s going to be a marathon, not a sprint,” Vanderbilt’s Allensworth said.Write to Jan Wolfe at jan.wolfe@wsj.com</t>
+  </si>
+  <si>
+    <t>Chinese rulers have long used campaigns against corruption to sideline rivals and consolidate power. Xi Jinping is increasingly tying his authority to a new variation: a purge that never ends.With echoes of Mao Zedong’s “continuous revolution,” Xi has sent fear rippling through the ranks of the Communist Party for more than a decade with the largest campaign against corruption in modern Chinese history. It is now threatening to petrify the party as it tries to steer the world’s second-largest economy through its greatest period of uncertainty in a generation.Since he came to power in 2012, party enforcers have punished roughly five million people for offenses as serious as abuse of power and as innocuous as creating excessive red tape.In 2023 alone, the unrelenting campaign swept through the worlds of finance, food, healthcare, semiconductors and sports—taking down scores of senior officials, bankers, hospital directors and even soccer administrators. China’s foreign and defense ministers went missing in the summer before being abruptly removed from their posts, leading to suspicions that they, too, have been purged. Beijing’s recent ouster of a dozen senior military and defense-industry officials from the national legislature and a government advisory body have fueled speculation about a broader shake-up of the country’s military establishment.There is no end in sight. The Chinese leader recently outlined his plans for how the campaign would proceed in the next few years and has even targeted the very agency tasked with carrying it out.Critics of Xi say the campaign’s extension into a second decade is a result of his refusal to accept structural changes and greater transparency that are necessary for cleaner governance. The Chinese leader has instead cast the blame on the moral failings of individuals, while doubling down on his centralized and opaque style of governance, according to a Wall Street Journal analysis of Xi’s remarks, party directives and official data. Only a continual cleansing can ensure the party remains potent and pure, he has argued.“Battling corruption is the most thorough form of self-revolution,” Xi said days before starting his third term as party chief in October 2022. “As long as the soil and conditions conducive for corruption continue to exist, the fight against corruption can’t cease for a moment.”Such an assertion clears the way for Xi to use disciplinary purges indefinitely as a way to enforce fealty, through fear, to himself and his vision.“In China, campaigns are supposed to be an intense but short burst of enforcement,” said Yuen Yuen Ang, a political-science professor at Johns Hopkins University. “Xi has invented a paradoxical policy tool: a perpetual campaign.”While the forever purge buttresses Xi’s authority, it also has instilled a constant apprehension and reluctance to act decisively among party members as challenges mount. The economy is struggling to shake its Covid hangover. Youth unemployment has skyrocketed, and the property market and consumer sentiment have tanked. Meanwhile, debt is piling up and foreign investors are increasingly turning their backs on the Chinese market.In the early years of the campaign, many officials saw it as a longer and more ambitious version of previous efforts. Roughly 180,000 people were disciplined for infractions in 2013, a number that climbed to some 621,000 in 2018, the year Xi proclaimed a “crushing victory” over corruption.Official data show at least half a million people being disciplined every year since 2017—around four times as many as were typically punished annually when Xi’s predecessor held power from 2002 to 2012. By some measures, corruption has indeed fallen under Xi. Berlin-based advocacy group Transparency International ranked China 65th in its 2022 index on perceptions of public-sector corruption in 180 countries and territories, an improvement from 80th out of 176 jurisdictions in 2012, the year Xi took power. A survey published in 2020 by Harvard University’s Ash Center for Democratic Governance and Innovation found that the proportion of Chinese citizens who saw officials as being generally “clean” rose to more than 65% in 2016 from roughly 35% in 2011. There are other indications, however, that Xi hasn’t curbed corruption so much as pushed it deeper into the shadows. The new five-year plan for fighting graft released in September pledges to curb new and hidden forms of corruption where officials use murky corporate structures and “revolving doors” between the public and private sectors to seek illicit gains.A recent case involving Zhang Jing, a former local official in southwestern China, shows corruption has remained insidious and persistent. Zhang’s offenses date to the early 2000s, when as a township party chief, he started accepting “red envelopes” of cash from entrepreneurs and friends in return for providing inside information about government projects, according to an official account.When one of those entrepreneurs was detained by authorities in 2013, Zhang grew frightened, to the point of asking a feng shui master to pray for his safety, according to the account. He tried to cover his tracks, such as by returning a bribe to one entrepreneur through a bank transfer—so that he could cite bank records to plead innocence—before taking the bribe again in cash later.Authorities didn’t catch up with Zhang until 2022, when the party detained and eventually expelled him. In March 2023, he was sentenced to four years in jail after being found to have taken more than 1.24 million yuan worth of bribes, equivalent to around $175,000 at current rates.“I didn’t pull back from the precipice and confess to the organization in time,” he said in his confession. “Instead I racked my brains to try to cover up my crimes.”Investigations involving more visible forms of corruption have fallen in recent years, according to official data. People punished for dining on public money dropped to around 9,300 in 2022 from 13,600 in 2018, and those disciplined for holding lavish events such as weddings and banquets slipped below 3,000 from 7,000 over the same period.Meanwhile, the number of people disciplined for improper giving and receiving of gifts—a more hidden form of graft—have steadily climbed, rising to 23,000 in 2022 from about 6,800 in 2015.The party’s top internal watchdog, the Central Commission for Discipline Inspection, has warned about a growing trend of “options corruption”—named after a type of financial contract—whereby crooked cadres provide favors in return for deferred bribes to be paid out only after they retire, as a way to mask their misconduct.Despite his efforts to fight graft, which include cutting government approvals and red tape that officials can abuse to extract bribes, Xi hasn’t enacted deeper structural changes—such as asset disclosures—that experts in clean government say are needed to attack corruption at its root. Xi seems to accept some levels of graft as an unavoidable consequence of sustaining one-party rule, some analysts say, whereby corruption is to be suppressed—rather than eradicated—through eternal vigilance.For Xi, “it is all about attitude and mental disposition, not about institutional checks and balances,” according to Daniel Leese, a professor of Chinese history at the University of Freiburg.Leese and other historians say Xi’s perpetual purges are inspired in part by Mao’s ideas on waging “continuous revolution,” which were meant to avert ideological atrophy in the party and broader society. But whereas Mao roused ordinary Chinese into purging class enemies and assaulting what he saw as a decaying party from the outside, Xi has shaken up the party from within, using fear to enforce virtuous behavior. Even the party’s discipline inspectors themselves have become targets, under a rectification campaign launched in February that aims to “turn the blade inward and cut out decaying flesh.”The point is to maintain constant pressure, according to Leese. “There is simply no way of reaching a final stop with this model,” he said.While it has helped Xi accumulate a level of power unseen since Mao, party insiders say his “rule-by-fear” approach has stifled policy debate and fueled indecision among lower-level officials at a time when China requires more decisive leadership to deal with long-term challenges. The fear is leading bureaucrats to act timidly, with potentially significant impact on the economy, researchers say. “Officials are more inclined to provide favors to [state-owned enterprises], thereby reducing their career risks because such allocations do not imply corruption,” Zeren Li and Songrui Liu, a pair of Chinese researchers, wrote in a recent study. Such favoritism undermines economic efficiency and diverts resources from more dynamic private enterprises, they argued. Party authorities also have issued fresh warnings against “formalism,” or box-ticking behavior that cadres engage in to feign compliance with Beijing—bogging down the bureaucracy in unproductive work.The persistent slowdown in China’s economy magnifies both the stakes and challenges for the party. Xi’s dominance “has made it difficult for lower officials to make decisions because they are concerned about running into trouble,” particularly given conflicting policy demands, said Andrew Collier, managing director of Orient Capital Research in Hong Kong. “They are at the difficult end of choices between paying for social services, economic development, and lowering debt levels—an impossible balancing act.”Xi has signaled no retreat.“The struggle against corruption will never end,” the Communist Party’s top antigraft body said in a recent commentary. “It will only be ongoing, but never completed.”Write to Chun Han Wong at chunhan.wong@wsj.com</t>
+  </si>
+  <si>
+    <t>SEOUL—Throughout 2023, North Korean leader Kim Jong Un called for the expansion of his country’s weapons arsenal. This year, he plans more of the same. Pyongyang plans to carry out three more spy-satellite launches and accelerate nuclear-weapons production in 2024, Kim told top North Korean officials in recent year-end meetings. The 39-year-old dictator ruled out reunification with South Korea. And he echoed prior dissatisfactions with the U.S., urging his country to prepare for an armed conflict that could occur at any time. Kim outlined to senior military leaders the potential response to an enemy attack on North Korea, according to a Monday report in state media. “Our army should deal a deadly blow to thoroughly annihilate them,” Kim was quoted as saying.Kim often uses year-end speeches or New Year’s Day addresses to preview what the regime may do next, using the spotlight to issue threats to enemies or hint at prospects of engagement. But Pyongyang hasn’t been in the mood for talks with the U.S. or South Korea for years. Instead, North Korea has revved up nuclear advances and grown tighter with neighboring allies in China and Russia. In response, Washington, Seoul and Tokyo have bolstered three-way defense exercises and linked up their missile-radar data with one another.Kim pointed to increased hostilities as compelling the country to “sharpen the treasured sword,” which is how the North often refers to its nuclear program. Pyongyang is likely to continue its hard-line policies and weapons launches ahead of South Korean parliamentary elections in the spring and the U.S. presidential elections in November, security experts say.“The level of threats both sides are perceiving from each other has increased sharply,” said Ellen Kim, deputy director and senior fellow of the Korea Chair at the Center for Strategic and International Studies, a Washington, D.C.-based think tank. Last year, North Korea conducted nearly 30 missile tests, making significant progress in solid-fuel ballistic missile technology and its satellite program. That includes three launches of its newest Hwasong-18 intercontinental ballistic missile, making major advances in diversifying an arsenal that has an expected range long enough to reach the U.S. mainland.Weapons experts say the solid-fuel ICBM can be deployed more quickly and with more stealth than prior variants. Kim also accomplished one of his top weapons objectives by successfully launching a homegrown spy satellite into orbit in November, following two botched attempts earlier in the year. “We need to swiftly respond to a possible nuclear crisis and mobilize all physical means, including nuclear force, in a bid to accelerate preparations for the great event of putting the entire territory of South Korea under our control,” Kim said on the last day of the plenary meeting. Despite the U.S., South Korea and others condemning North Korea’s growing missile and nuclear threat, Russia and China have repeatedly blocked efforts to hold the Kim regime accountable for its illegal weapons advances. With Beijing and Moscow on its side, Pyongyang has little incentive to halt its weapons program, and the stalled nuclear talks with Washington will allow North Korea to accelerate its military buildup, Kim regime watchers say. “North Korea is winning without fighting at the moment because things are going its way in the international arena,” said Christopher Green, a senior consultant on Korean issues for the International Crisis Group.In March, Kim called for expanding the production of nuclear material, calling on officials to prepare the ability to use nuclear weapons at any time. In August, he ordered increased production of artillery shells for front-line units as he oversaw the making of tactical missiles and mobile launch platforms at military factories. In December, the United Nations nuclear watchdog said a new reactor appeared to be operating for the first time at North Korea’s Yongbyon nuclear complex, potentially signaling an additional source of plutonium for nuclear weapons. The discharge of warm water from a light water reactor suggested it was coming online, the International Atomic Energy Agency said. Kim exchanged New Year’s greetings with Chinese President Xi Jinping, vowing to further deepen bilateral ties. Xi said China-North Korea relations have entered a “new historic period” and that the two countries maintained close strategic communication and cooperation in international issues, according to North Korean state media. In 2023, North Korea’s trade with China, its largest economic partner, reached a four-year high as bilateral trade recovered. Pyongyang has been gradually emerging from pandemic isolation, sending its athletes to the Asian Games in China and reviving high-level talks with China and Russia. The U.S. and others have accused North Korea of supplying ammunition to Russia for the war in Ukraine—which Moscow and Pyongyang have denied. In a sign of the two countries’ warmer ties, Kim made his first overseas trip since the Covid-19 pandemic in September to meet Vladimir Putin in Russia’s Far East. The two pledged to cooperate closely on economic and military issues. But Pyongyang’s relations have soured with neighboring Seoul. The two Koreas recently backed away from a 2018 accord reducing military tensions. Now, front-line soldiers from both countries patrolling the Korean border are again armed.At the North Korean plenary session, Kim said he no longer considered South Korea as a counterpart for reconciliation and unification. South Korean President Yoon Suk Yeol, who took office in May 2022, has maintained a hawkish stance toward the Kim regime, focusing his efforts on strengthening trilateral cooperation with the U.S. and Japan to counter Pyongyang’s nuclear threats. In a New Year’s Day speech, Yoon said South Korea would build peace through strength, by advancing the country’s defense system to deter North Korean threats. “It will not be a submissive peace that is dependent on the good will of the adversary,” he said on Monday.Write to Dasl Yoon at dasl.yoon@wsj.com and Timothy W. Martin at Timothy.Martin@wsj.com</t>
+  </si>
+  <si>
+    <t>President Biden is touting his domestic and foreign policy record as he contrasts his time in office with the tenure of his likely 2024 opponent, former President Donald Trump. Although Biden has had some bipartisan legislative victories, he has fallen short on some of his promises. Here is how Biden has fared on his major 2020 campaign proposals:Photos: ASSOCIATED PRESS (1); AGENCE-FRANCE PRESSE/GETTY IMAGES (2)Write to Tarini Parti at tarini.parti@wsj.com and Kara Dapena at kara.dapena@wsj.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you follow music closely, there’s not a lot of time between wrapping up lists of your favorites one year and looking ahead to see what’s coming the next. The latter part of December, always a fallow period for new releases, is a time for resting your ears, checking out a bit of Christmas music, maybe catching up on a reissued boxed set or two. But by the first week of January, you are ready for new records. Many of the most promising first-quarter 2024 LPs are coming from artists whose careers are at an inflection point. Colombian-American Kali Uchis released her first Top 10 album, “Red Moon in Venus,” in March 2023. On Jan. 12, she follows that commercial breakthrough with “Orquídeas,” her second Spanish-language LP, and advance single “Labios Mordidos” suggests she’ll sustain that momentum. It’s an energetic duet with Colombian singer Karol G that finds the pair on the latter’s turf, trading funny and boastful asides over a slinky reggaetón beat. English art-rock band Radiohead released its last studio record almost eight years ago. The emergence of The Smile, the side project featuring the band’s Thom Yorke and Jonny Greenwood alongside drummer Tom Skinner, makes this extended hiatus easier to endure. “Wall of Eyes” is the title track from the offshoot’s second full-length release, which arrives on Jan. 26. While Radiohead can sometimes get hung up on texture and arrangement, this song, with its strummed guitar and bossa-nova rhythm, brings to mind the simple beauty of the parent outfit’s 2007 LP “In Rainbows.” Baltimore’s Future Islands also takes its time with new releases. The synth-heavy indie rockers broke through in a big way with their 2014 set “Singles,” whose hit “Seasons (Waiting on You)” went viral thanks to a memorable performance on “Late Show With David Letterman.” The group’s forthcoming record, “People Who Aren’t There Anymore,” also due the last week of January, was preceded by the excellent track “The Tower,” which finds lead singer Sam Hering’s sandpaper voice roughing up the twinkly synths in a manner that recalls the best of the band’s early work. Psych-rock duo MGMT, another band known for incorporating electronics into lush arrangements, returns with its fifth studio offering, “Loss of Life,” on Feb. 23. The dreamy single “Mother Nature” bodes well for the release and plays to the project’s strengths, with floating harmonies and a bounty of fresh melodic ideas. Green Day’s 14th LP, “Saviors,” arrives on Jan. 19. The band has covered a fair amount of stylistic ground across its previous records, from political concept albums to collections of garage-rock rave-ups, and its influence over the pop-rock of today is massive. Advance single “Dilemma” distills the group’s sound to its essence: crunchy riffs, an appealing chorus hook, in and out in a little over three minutes. Sheer Mag, a comparatively young band working on a much smaller scale, knows well the virtues of short, punchy, effective songs that seem designed for a corner bar’s jukebox. The band’s singer, Tina Halladay, shines on “Playing Favorites,” the title track from its third album, due March 1 on Third Man, the label owned by kindred spirit Jack White. In the first half of the 2010s, singer-songwriter Brittany Howard made her name as the frontwoman of roots-rock band Alabama Shakes, another group whose music works perfectly in a rowdy pub. Her first solo offering, “Jaime,” arrived in 2019 and showed the wide range of her talents, as she mixed folk, soul, rock and hip-hop. The long-awaited follow-up, “What Now,” lands on Feb. 2, and the track “Red Flags,” which finds Ms. Howard layering her voice into a wailing choir over clattering drums, suggests there will be no dip in intensity. Bronx-raised singer-songwriter Alynda Segarra, who leads the project Hurray for the Riff Raff, is a peer of Ms. Howard’s whose politically charged music is also steeped in Americana. “Alibi” from Segarra’s forthcoming record “The Past Is Still Alive,” out Feb. 23, is a remarkable showcase of the musician’s vivid songwriting, marked by emotional epiphanies and local details (“You told me your big secret on the FDR / I couldn’t hear you over choppers and the bus and cars”).For almost 15 years, songwriter-producer Roberto Carlos Lange has been releasing intriguing electro-pop under the name Helado Negro. His low-key and texturally rich work hasn’t quite hit the mainstream but he’s a perennial critics’ favorite, and “I Just Want to Wake Up With You,” from his Feb. 9 album, “Phasor,” is a fine example of what makes his music so appealing. It’s a tender ode to human intimacy, with pillow-soft production and a hypnotic tune, over which Mr. Lange sprinkles electronic accents like fairy dust. It may not burn up the charts, but it will find those who need it, and it’s a nice way to kick off the year in listening, striking a hopeful tone as we look ahead. </t>
+  </si>
+  <si>
+    <t>I read Mark Naida’s op-ed “Capture Flaco the Owl” (Dec. 26) with interest, but I am puzzled by his philosophy. Trapping a wild predator isn’t risk-free. More important, I ask myself how I would feel in the trap.If I were a caged predator bird, I would take any means of escape. Given the opportunity to soar on the thermals created by Manhattan’s magnificent skyscrapers or remain trapped, to be stared at by flightless bipeds, I know the route I would take—even knowing the potentially fatal risks of freedom.Charles KerberSan Diego</t>
+  </si>
+  <si>
+    <t>For Minnesotan Tara Young, the perfect beach conditions are when the water is, well, extra stimulating. She prefers the middle of winter, when most mornings she treks off to soak in a nearby frigid lake.The 38-year-old enjoys her chilly pastime so much she volunteers to clear and maintain an opening to the water through inches of ice, so bathers may plunge. “I love the sawing and the clearing,” says Young, a mom and retail worker. “It warms you up a bit before you get in.” That hasn’t been needed lately. There is thin or no ice on many Minnesota lakes this month, possibly the state’s warmest December on record. One can hope this all turns around soon.“Maybe we’ll get lucky and have a polar vortex,” says Young, referring to a weather pattern that can draw arctic air from the North Pole.That is not a sentiment uttered in most of the U.S., but Minnesotans have an unusually close kinship with winter. For them, it is a season to escape, endure or embrace. The embracers go big. Towns compete for the title of the state’s coldest spot, thrillseekers surf the big waves off Duluth, and bars pop up in the middle of frozen lakes to cater to ice fishermen. Now, relatively balmy temperatures and scarce snow have upended life as Minnesotans know it, disrupting routines, canceling wintry events and leaving many anxiously hoping for a return to bone-chilling normal. “Pray for cold weather so we can go fishing!” wrote Garrison Sports Bait &amp; Tackle in a post on its Facebook page.The shop on Mille Lacs Lake is about 100 miles north of Minneapolis, not normally a region where the locals need divine intervention to make ice in the winter.In colder years, owners Ashley Schmaltz and her husband, Wayne Schmaltz, use a heavy-duty diesel truck to plow snow from the ice for fishing. As many as 200 ice houses might dot the lake along their property.As of Saturday morning, Schmaltz could see open water. Her family’s portable ice house remains folded in their backyard, and everybody she knows is itching to get out ice fishing. “People are bored.”The local economy also counts on wintertime tourism, so on Facebook Garrison Sports Bait &amp; Tackle is urging anglers who typically take their boats off the water in late fall, to put them back in. “Word is the bite is awesome. We are still offering 20% off bait until the lake freezes!”A brief light snow was expected this weekend in the Twin Cities, but “highs will still be running 5 to 10 degrees above normal to start 2024,” the National Weather Service said on X. The unusual season is, in part, because air currents that deliver freezing temperatures to the state have shifted north this year with the El Niño weather system, a natural warming condition in the Pacific Ocean. Climate change has also contributed, says Pete Boulay, a climatologist with the Minnesota Department of Natural Resources. Minnesota’s lack of snow is compounding the problem, since snow reflects solar radiation, Boulay says. Maps updated weekly show snow cover in a pocket of northwestern counties disappearing. The rest of Minnesota is largely bare. “Having no snow on the ground is a big factor,” Boulay says. It is also eerie in a state where blizzards can strike as early as Halloween. One epic 1940 storm stranded hunters who froze to death. Heavy snowfall in 2010 accumulated on the inflated covering of the Minnesota Vikings stadium, which couldn’t bear the weight. It collapsed. Just last winter, Minnesota snowfall set or neared record amounts in cities including Duluth, Minneapolis and St. Paul. “It’s almost like we had two winters last year, and that’s making up for this one,” says Boulay. Unseasonable weather has canceled events that depend on brisk air and snow-packed trails, including kicksledding and cross-country skiing classes at Battle Creek Regional Park in St. Paul. Also put on ice was the Minnesota Ice Festival, which noted in a cancellation announcement that “the weather hasn’t cooperated.”Others remain determined. “We are monitoring the temps in Minneapolis, looking at several forecast models, begging Mother Nature, and praying to the pond hockey gods,” said organizers in a message to teams competing in the U.S. Pond Hockey Championships.The Minneapolis event is scheduled for mid-January on Lake Nokomis, which as of Saturday was a disappointing mix of thin ice and open water.In neighboring St. Paul, snow-making teams at Battle Creek park are closely watching an app for suitable conditions. “We’re just waiting for good weather,” says Rob Adams, parks maintenance and operations supervisor for Ramsey County. By good weather, he explains, he means about 10 degrees. Lately, they have been making snow when a measure of temperature and humidity reaches 27 degrees, the minimum needed. At 3 a.m. Friday, crews got an opening and set to work. Warming temperatures forced them to stop around 11 a.m. He got some requests from snow-nostalgic Minnesotans before the holidays who jokingly asked him to whiten up their front yards. (That was a no-go.) Mary Collins decided she would learn to love winter when she moved to Minneapolis from more-temperate Seattle in 2017. Collins and her girlfriend even set their wedding date for February. “We love winter,” Collins says. “We decided to lean into it.”They have invited wedding guests to dip into Minneapolis’s Lake Harriet before the ceremony, and have planned cross-country skiing for the following day. Collins is staying positive about the dip, since Lake Harriet’s waters will surely be chilly, with or without ice. “We’ll see who shows up,” she says. “Some people are talking a big game.” (Those who choose to sit out the bathing will be supplied with coffee and doughnuts, she adds.) Let’s face it, warmer temperatures bring benefits. Mark McCabe, parks and recreation director for Ramsey County, says he isn’t missing “the frozen lips and eyelashes as you’re clearing snow off your driveway and it’s blowing back on your face.” December rains helped relieve the state’s drought, a potential boon for farmers this coming year, says Dave Nicolai, a field-crop educator with the University of Minnesota Extension. And Mike Thomas, general manager for the North Links Golf Course in North Mankato, Minn., sold out tee times days before Christmas and piped holiday music over speakers for players. Eager golfers, hustling to grab spots that were limited by the season’s early nightfalls, contacted Thomas directly by phone and social media. “I turned away friends,” he says. North Links closed after a final day of golf on Dec. 23, the latest in 30 years Thomas has managed the course. Greg McKush, owner of Montgomery National Golf Club, last week was planning to keep his course open through New Year’s Day, so golfers can boast they played in Minnesota in January. (Another plus: shallow water hazards can freeze overnight, keeping balls in play).McKush says the extended season will help finance planned investments. “As much as I like winter and white,” he adds, “green is good right now for me. I mean in the dollar form.” Write to Melanie Evans at melanie.evans@wsj.com</t>
+  </si>
+  <si>
+    <t>Philippa Newfield writes that two young “woke” ladies were offended (Letters, Dec. 26) when welcomed by two older gentlemen with the comment: “We are happy to have young people with us, especially young people as pretty as you.” Would these gentlemen have welcomed two young men with the same words? If not, then their “welcoming” words were sexist and demeaning, and the young women were justified in their feelings. How about welcoming people simply with the phrase: “We’re happy you could join us”?Denise Kummer St. Louis, Mo.</t>
+  </si>
+  <si>
+    <t>Regarding Greg Weiner’s “A Haven from the Ivy League’s Madness” (Houses of Worship, Dec. 22): We are an observant Jewish family who chose the Catholic, Jesuit Saint Louis University for our daughter, and she has been delighted. She decided she’d rather be in an environment where strong faith mattered, and people walked the walk, rather than one where piety and morality are unimportant, mocked or even scorned.The school agreed to install a kosher kitchen for her (and other students who may come), so that she could have a seat at the table, literally. They said no one had ever asked for it before, but since then she has met a number of other students whose families had made the same decision. In today’s ominous campus atmosphere, a strong Catholic university may be a better option for Jews than an Ivy League school.Matthew GradSt. Louis, Mo.</t>
+  </si>
+  <si>
+    <t>As a doctor working in the pediatric emergency room, I have seen many young children come in sleepy, confused or even nonresponsive after they unintentionally ingested cannabis-infused edibles they thought were candy (“Gummies With Hemp Send Kids to Hospitals,” Page One, Dec. 20). Sometimes these children end up receiving expensive and unnecessary interventions such as blood draws, spinal taps or head imaging, which involves exposure to radiation.As THC products become more available, accessible and potent, it is imperative that we protect children from accidental poisonings that lead to preventable interventions, emergency-room visits and sometimes admissions to hospitals and intensive-care units. Specifically, we need legislation that restricts copycat packaging, requires child-resistant packaging that complies with the Poison Prevention Packaging Act of 1970 and limits the quantity of THC in each serving size and package. I instruct parents and caregivers that it is safest to avoid having THC-containing products in the home. If they are present, however, families should remember to treat edibles like medication and store them out of reach and out of sight, preferably locked. Families should also ask about possible edible exposures in all environments in which their child spends time. Priya Shah, M.D.Philadelphia</t>
+  </si>
+  <si>
+    <t>In a Dec. 28 letter responding to Charles Gasparino’s review of my book, “Witness to a Prosecution” (Bookshelf, Dec. 18), Bruce Baird refers to me as Michael Milken’s “apologist” and accuses me of inventing a “false narrative.” Clearly, he didn’t read the book, and I would never lie or create a false narrative. That Mr. Baird wrote or approved Mr. Milken’s indictment proves nothing. In our country, the accused is innocent until proven guilty beyond a reasonable doubt, a fact that prosecutors too often forget. My book discusses in detail the power of the prosecutor, and how that power can be and was misused.Mr. Milken pleaded guilty to technical regulatory violations that had never before been the subject of a criminal prosecution. Mr. Milken did so for reasons stated in the book, including that his brother had been indicted solely to bring pressure on him.The prosecutors whom Mr. Baird references approved the plea, and when given the opportunity by the court, they failed to prove any other wrongdoing—notwithstanding Mr. Baird’s 100-page indictment, which proved to be the “false narrative.” I stand by the facts as set forth in the book.Richard V. SandlerSanta Monica, Calif.</t>
+  </si>
+  <si>
+    <t>The stunning agreement last June between the PGA Tour and LIV Golf’s Saudi backers came with a deadline to hammer out a deal: the end of 2023. As New Year’s Eve came and went without a pact, the sides now say they are poised to continue negotiations into 2024. In a memo to players Sunday, PGA Tour commissioner Jay Monahan wrote that the goal remains to strike a finalized agreement—but it hasn’t happened yet. Instead, he said, there are “active and productive conversations” with Saudi Arabia’s Public Investment Fund and they are “working to extend our negotiations into next year based on the progress we have made to date.”Both sides sought to cast the extension in a positive light. A person familiar with Saudi Arabia’s Public Investment Fund’s thinking said it’s engaged in “constructive conversations” with the PGA Tour and other relevant parties, and that the PIF looked forward to continuing those talks into the new year. But the former sworn enemies’ inability to reach a deal before the ball dropped on last year lays bare the complexities of coming to terms on a deal that will finally settle the battle that has roiled professional golf. The Tour also recently entered into exclusive talks with a group of U.S.-based investors known as the Strategic Sports Group, and Monahan’s memo said that the Tour has made “meaningful progress and have provided SSG with the due diligence information they requested.” The idea, he said, is to bring on the Saudis and the SSG investors as “minority co-investors” in a new for-profit entity called PGA Tour Enterprises. “These partnerships will allow us to unify, innovate and invest in the game for the benefit of players, fans and sponsors,” Monahan wrote. When LIV launched in 2022, it threw the industry into tumult as PIF committed billions of dollars toward running a new, rival circuit. The league spent extraordinary sums to attract some of the biggest names in the sport such as Phil Mickelson and Brooks Koepka. The upstart created a divide in the game, and the PGA Tour and LIV spent a year battling each other on the course for players and in the courts, where both sides had sued each other. LIV had accused the Tour of behaving as a monopolist, while LIV critics assailed it as an attempt to use the glow of a popular sport to whitewash Saudi Arabia’s record on human rights. Those assaults came to a sudden halt last year when the sides made an out-of-nowhere agreement to work together on a new venture. The decision shocked the PGA Tour’s players, who were just as blindsided as the general public and have been openly critical of how it was handled. But that agreement contained few specifics—it was merely a deal to try to make an actual deal. One of the few firm points was that the sides would drop their litigation against each other. In the meantime, both sides have trudged forward with their respective 2024 campaigns. And in a jarring twist, as the Dec. 31 deadline approached, LIV signed reigning Masters champion Jon Rahm away from the PGA Tour. The move raised eyebrows especially because of its timing—LIV was splurging to pilfer a superstar golfer away from the entity that it was supposed to join forces with in just a few weeks.People familiar with the matter said the Saudis had two reasons to make the move. First, it made clear that they wouldn’t be elbowed out of any deal even as the PGA Tour courted other outside investors. They also viewed Rahm as an insurance policy to boost LIV in the case that the sides couldn’t come to terms on a final agreement. That still-elusive final agreement is extraordinarily complicated, and not just because it’s a transaction likely worth billions of dollars. Settling the other fallout from the fissure they created may be the trickier part. One of those issues is if and how players who left for LIV can return to playing in PGA Tour events. The PGA Tour suspended those who left, and some chose to simply resign their memberships. And that hasn’t ceased: Rahm was suspended by the Tour shortly after he donned a bomber jacket emblazoned with “LIV GOLF” and announced his defection to the rebel circuit. While it would seemingly be in the interest of fans to see all the best players in the world regularly playing against each other once again, an easy path back to the Tour may not be especially welcome among the players who remained loyal to the establishment body. Another outstanding question is whether there’s any type of mechanism to reward the players who turned down huge paydays from the Saudis to remain loyal to the Tour—only to watch their bosses eventually decide to go in business with the same party they once vilified. The players, who have to approve any deal and have a sizable role on the PGA Tour’s board, have given themselves an active role in the talks. Last year, after the deal, the players added the legendary Tiger Woods to the board and announced it would be conducting a governance review. Not all of the players’ interests are the same, though—Woods is not necessarily in the same boat as a rank-and-file Tour member. Further complicating matters: The Justice Department has made clear that it will review any deal over antitrust concerns, The Wall Street Journal previously reported. The DOJ had already been investigating the Tour, among other golf bodies, for potential anticompetitive behavior—and that was before the Tour went into business with its biggest rival. Such a review can take months at minimum. The result: Even if the sides do come to a final agreement, it might not effectively take shape until 2025. Write to Andrew Beaton at andrew.beaton@wsj.com and Louise Radnofsky at louise.radnofsky@wsj.com</t>
+  </si>
+  <si>
+    <t>On Christmas Day, Defense Secretary Lloyd Austin announced that U.S. military forces conducted “proportionate” strikes against Iraqi militias that attacked and wounded American service members (“Biden Endangers U.S. Troops,” Review &amp; Outlook, Dec. 27). The statement defines the equivocating, timid and wholly unsuccessful strategy of the Biden administration, but also of successive administrations for years.After nearly daily attacks on U.S. forces over months, resulting in dozens of wounded Americans, “proportionate” ought to have been revealed as having no deterrent value. It is past time for the U.S. to signal to those who attack our forces that they will pay disproportionately and severely. Continued attacks will see increasingly robust spankings. In this case, if the Iraqi government won’t support our actions, remove our troops. Rope-a-dope tactics fail our men and women who serve.Lt. Gen. G.S. Newbold, USMC (Ret.)Flat Rock, N.C.What is the point of having the most powerful and technologically sophisticated armed forces in the world if they are kept on the sidelines even when they are under attack? Why continue to spend hundreds of billions of dollars for a U.S. military that is ordered to do no more than the bare minimum as American soldiers and shipping are under siege?President Biden’s actions have all but openly renounced the use of decisive military force against hostile powers, and the present chaos shows that Iran and her vassals have gotten the message. Until we re-establish a credible deterrent and demonstrate to the world that we possess the will to use the lethal arms at our disposal, the open season on American interests will continue unabated.Adam RobbinsPrinceton, N.J.Your editorial poses the question: “When will President Biden do his duty as Commander in Chief and protect Americans deployed abroad?” I couldn’t help but wonder when he would do his duty as president to protect citizens at home from mass illegal immigration. He appears unwilling to do either.Jesse ArmstrongMidlothian, Va.The highest priority of our military is to protect the nation against our enemies and to advance our national interests when peaceful means have failed. Fear of a larger conflict isn’t a policy: You avoid escalation either through convincing deterrence or by pre-emptive surrender—and clearly we have passed on convincing deterrence.Stanley SpatzHollywood, Fla.</t>
+  </si>
+  <si>
+    <t>Election-year jitters have the Biden administration and a few swing-state members of Congress from both parties parroting union concerns about Nippon Steel’s takeover of U.S. Steel. The United Steelworkers union favored Cleveland-Cliffs’s offer, which was almost 50% lower than Nippon’s $14.1 billion bid. There is no real cause for concern other than xenophobia and the damage it could do to Cleveland-Cliffs’s position as the sole U.S. producer of electrical steel for transformers and electric vehicles. The rest is imported.Nippon’s steelmaking is at least as advanced as U.S. Steel’s, so technology export control isn’t an issue. National security could be a concern if American mills were shutting down due to unfairly subsidized Japanese exports to the U.S. But Nippon never used gimmicks to avoid the Trump tariffs on steel imports. And its $14.1 billion investment in U.S. Steel is a powerful incentive against any dumping by Japan. There’s nothing in the deal from which the U.S. needs defending. Attacks by Washington pols only create unnecessary geopolitical tensions, and those, not the acquisition itself, could endanger American national security. It would be hypocritical of U.S. politicians to seek market access abroad while arbitrarily blocking it here. Such inconsistency would fan protectionist flames around the world and raise questions about America’s reliability as a trading or national security partner. Japan is a major ally, recently agreeing to replenish the U.S. supply of Patriot missiles with ones made by Mitsubishi Heavy Industries under license from Lockheed Martin and RTX, formerly Raytheon Technologies. Japan ranks first in foreign direct investment in the U.S., with more than $700 billion in 2022. U.S. firms are the largest foreign investors in Japan.Nippon has a history of good labor relations and has pledged to honor U.S. Steel’s union contract, which runs through 2026. The union complained that U.S. Steel blindsided it by giving no advance notice of the deal. Perhaps management can right that misstep by apologizing publicly. The American steel industry is operating at about 75.4% of capacity and idle capacity exceeds U.S. Steel’s total output, so there is no danger of monopolistic behavior by the merged firm. U.S. Steel bonds are in the junk category, but the major rating agencies said upgrades are possible if the Nippon deal goes through. U.S. Steel’s importance in terms of economics and national security can be enhanced only by stronger finances. There was no hubbub when I sold International Steel Group to Indian entrepreneur Lakshmi Mittal in 2005, or when Severstal, a Russian company, bought Ford Motor’s steelmaking unit. So why the clamor today? It’s likely the same sentiment that back in 1989 ignited public controversy and concern over Japanese conglomerate Mitsubishi Estate’s deal for Rockefeller Center. Ultimately, the handwringing proved unwarranted. The lights stayed on and the center’s offices, shops and plazas kept functioning. The same will be true of Nippon and U.S. Steel. Neither workers nor customers need have any fears. Mr. Ross served as commerce secretary, 2017-21. He is a former chairman of International Steel Group, owner of Bethlehem and several other steel companies.</t>
+  </si>
+  <si>
+    <t>West Mifflin, Pa.It’s a warm December morning, and Sen. John Fetterman is walking along the Great Allegheny Passage across the Monongahela River from his home in Braddock. “I spend as much time as I can out here,” he says of the trail, which runs 150 miles from downtown Pittsburgh to Cumberland, Md.Mr. Fetterman has been in the U.S. Senate just under a year, during which he’s recovered from a campaign-season stroke, checked himself into Walter Reed hospital for depression, and ruffled feathers on both sides of the aisle. In September it was reported that Majority Leader Chuck Schumer had relaxed the Senate’s unofficial dress code to accommodate Mr. Fetterman’s preference for wearing hoodies and shorts. (That move backfired, leading the body to adopt a formal requirement of business attire.)Of late, however, Mr. Fetterman has drawn the ire of the Democratic left for his unapologetic support of Israel, for his support of a bipartisan solution to the border crisis, and for his cheeky criticisms of the indicted Sen. Bob Menendez (D., N.J.).None of this is a surprise to Pennsylvania political observers. “Now that his health has finally improved, the national press and the country are finding out the real John Fetterman,” says Jeffrey Brauer, a political scientist at Keystone College. Mr. Brauer thinks that Mr. Fetterman’s difficulty communicating after his May 2022 stroke, combined with his casual dress and his combative approach to moderate primary opponent Conor Lamb led outsiders to assume Mr. Fetterman was a card-carrying progressive.In an interview with the Journal, Mr. Fetterman says that assumption was mistaken: “I had been stating clearly that I’m not a progressive, I’m not that kind of a label or anything like that,” he says. “I said that before the primary in ’22, and that’s how I’ve always believed. And I think these have all been very easy calls. I follow the moral clarity, not the polls or any silly labels.” Mr. Fetterman declared last week that “I would be the last man standing to be absolutely there on the Israeli side on this with no conditions.” Last month he blamed both parties for what he described as a reflexive political resistance to a border security deal. “Since you’ve covered me for years,” he says, “you know me, and you know my wife, and I’ve been very clear and supportive of immigration; I think it’s been part of what has made America, America.” Mr. Fetterman’s wife, Gisele, was 7 when her Brazilian mother brought her to the U.S. illegally. She naturalized in 2009.“Two things can be true at the same time,” the senator continues. “We do have a crisis on the border—and we have to look at the numbers that are the size of Pittsburgh showing up on the border. You can’t just say, ‘Oh yeah, OK. It’ll all work itself out.’ ” He sees border security as a matter of common sense: “I think if you really want to address immigration in the way that it deserves, we first must also have a secure border.”Since becoming mayor of Braddock in 2006, Mr. Fetterman has often bucked the local and state Democratic Party. In 2016, he ran in a U.S. Senate primary against eventual nominee Katie McGinty. He supported Bernie Sanders over Hillary Clinton that year and made party officials cringe when he warned that Donald Trump could win Pennsylvania in that year’s general election—as he did. “Anyone that spent time across Pennsylvania would have realized how popular he was and how he connected at a very deep level,” Mr. Fetterman now says.In 2018, Mr. Fetterman ran for lieutenant governor and surprised everyone—including then-Gov. Tom Wolf—by defeating the incumbent, Michael Stack, making him the state’s first lieutenant governor to lose in a primary election. Mr. Fetterman made local activists unhappy along the way, mostly over his support for the natural-gas industry.Mr. Brauer says Mr. Fetterman has emerged as a center-left senator in a style akin to that of West Virginia’s Joe Manchin and Arizona’s Kyrsten Sinema. “What is most interesting is that while the Pennsylvania senior senator, Bob Casey, has gone from being a major centrist to much more a progressive, the junior senator Fetterman is now being perceived as going from a progressive to a much more independent centrist.”Mr. Fetterman is proud that he acknowledged his depression publicly: “I realize now that addressing mental health is really critical because I’ve had a lot of people reach out to me and thank me for talking about it, and they have their own personal issue,” he says. “I’ve never been afraid of being judged. My only interest is really trying to help people—because I got lucky and I was able to get the kind of help that I needed. I want that kind of help for anybody—I don’t care, Republican, Democrat, anyone.”If there is any stress in having the progressive and socialist wing of his party angry at him, it doesn’t show. Mr. Fetterman looks as healthy as he did when he ran for lieutenant governor in 2017—when he was first diagnosed with an irregular heart rhythm, a diagnosis he later admitted he failed to address, and his doctor said ultimately led to his stroke.“Honestly, I feel fantastic,” he says. “That’s the truth.”Ms. Zito is a reporter for the Washington Examiner and a co-author of “The Great Revolt: Inside the Populist Coalition Reshaping American Politics.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris‘Our president eats my bread every morning,” Tharshan Selvarajah says as he sips a beer at 10 a.m. Too early for a tipple? Have a heart. Mr. Selvarajah was up before 4, baking baguettes at his boulangerie next door. It’s called Au Levain des Pyrénées (Sourdough of the Pyrénées), the name given by its previous owner, from whom he bought it in 2021. He was at the Élysée Palace at 7 a.m. sharp, 50 baguettes in the back of his little white van. “I came to France from the war in Sri Lanka in 2005. I was 18 with $50 in my pocket,” he says in English still accented with his native Tamil. “Now I’m 37, and I deliver baguettes seven days a week to Monsieur Macron.” This baker is a local hero. The waiter doesn’t charge him for the beer. We’re at a small bar in the 20th arrondissement, a dowdy part of eastern Paris to which few people come without good reason—and mine is impeccable: Mr. Selvarajah makes the best baguette in the city. In 2023 he won the Grand Prize of the Traditional French Baguette, finishing first in a blind tasting in which 126 Parisian bakers vied for victory. Winning the annual contest confers on the victor “the honor” (Mr. Selvarajah’s words) of supplying the French president with bread for a year. The 18 jurors prodded, sniffed, tasted and masticated before settling on a winning baguette. Mr. Selvarajah wept when he learned he’d won.This Tamil man embodies a spirit of integration that the French yearn for in their immigrants, many of whom find it hard to embrace France as completely as Mr. Selvarajah has. “French people are good people,” he says. “They like you if you learn their culture.” He’s still Hindu—beholden to the deity Shiva—and speaks Tamil at home with his Sri Lankan-born wife. Their two children speak “the best French,” he tells me, and go to private school for “the best education.” He wants his 7-year-old daughter to be “a French judge,” and his son, 4, to be “a heart surgeon.” Mr. Selvarajah’s father had wanted him to be a lawyer. During his undocumented years, he washed dishes at an Italian restaurant in Paris, sleeping on park benches if he got off work too late for the last train home to the outer suburbs. As his French improved, he waited tables and befriended a customer—the owner of Au Levain des Pyrénées—who came in for pasta every week. When the Italian joint closed in 2009, the baker hired him as an apprentice, teaching him to make baguettes, croissants and pains au chocolat, the holy trinity of any boulangerie. It took the Tamil two years to master the French art of the baguette—“using only flour, water, salt and yeast. I learned, learned, learned.” By 2012 he was chief baguette-maker. By 2018 he’d rented the bakery. Three years later, he bought it. After we chat we go to the bakery, where Mr. Selvarajah hands me a baguette that’s warm to the touch. I break off a piece and chew. “How is the taste?” he asks. He knows the answer: It’s excellent, and I say so. What I don’t express aloud is another truth. The taste of the baguette is the taste of assimilation. Mr. Varadarajan, a Journal contributor, is a fellow at the American Enterprise Institute and at NYU Law School’s Classical Liberal Institute. </t>
+  </si>
+  <si>
+    <t>In 1857, three years before Abraham Lincoln’s election to the presidency, two idle military men destined to face each other in the Civil War could be found managing the property—including enslaved human beings—of their respective fathers-in-law. By 1863 they would be managing vast armies fighting over the fate of the nation.One was Robert E. Lee, the aristocratic Virginian. The other—though he tilled far less land with far fewer slaves—was Ulysses S. Grant, the quintessential Northerner. Grant would manumit his one enslaved servant, William Jones, in 1859. But the father of his wife, Julia, continued to own 30 human beings, some of whom had labored in the fields alongside Ulysses or at home for Julia. One—a black woman we know only as “Jule”—nursed the couple’s children.Grant would eventually become the chief instrument for destroying slavery on the ground, once Lincoln’s Emancipation Proclamation not only liberated the enslaved in Confederate territory but ordered Union armies to “recognize and maintain” their freedom. This reality occupies the heart of John Reeves’s engrossing “Soldier of Destiny,” the latest in a slew of books that have stoked a Grant reappraisal.Mr. Reeves, a historian who has taught at several colleges and published a previous book on Lee, carefully limits the scope of this new study. It begins with Grant’s 1854 resignation from the Army, accompanied by allegations of drunkenness, and concludes with his appointment as commander of all Union armies 10 years later. (The final, convulsive months of the Civil War remain unexplored.) In a tightly focused narrative animated by vivid battle depictions, Mr. Reeves connects Grant’s personal and professional redemption to the country’s.The author approaches the task by assessing two central but unresolved pillars of the Grant myth: first, the longstanding speculation that he was an inebriate; second, the newer idea that he deserves credit, along with Lincoln, Congress and the agency of enslaved people themselves, for ending slavery. Re-enlisting at the outset of the Civil War, however, Grant still hoped to “whip the rebellion,” as he wrote, while “preserving all constitutional rights”—meaning the right of whites (like his wife and father-in-law) to own blacks. (In fairness, Lincoln initially hoped for a similar outcome.) At this point, Grant opposed abolition as fiercely as he condemned secession but understood from the outset: “If it is necessary that slavery should fall that the Republic may continue its existence, let slavery go.”On the matter of his weakness for spirits, Mr. Reeves deftly navigates conflicting theories holding that Grant was either an incurable drunk or the victim of such physical intolerance for alcohol that a mere sip of wine could ignite a bender. Mr. Reeves chooses a middle ground. His Grant controlled but never conquered his thirst, irresponsibly falling off the wagon between battles or, seemingly, whenever his wife or his military handler, John Rawlins, were absent from his side. At one point, Grant even risked tarnishing the glory he earned at Vicksburg by allegedly overimbibing at a lunch party, then riding an untamed horse that fell on and crushed the general’s leg.Somehow, Grant could go cold turkey before commencing a military operation, though reports of his lapses triggered concern from contemporaries. Although scholars have claimed that one superior officer, Henry W. Halleck, sidelined Grant in 1862 because he was jealous of his success, Mr. Reeves insists that Halleck had good reason to believe that Grant was too beholden to drink to risk entrusting him with a larger command.In a way, Grant proved similarly inconsistent about slavery: aware of its poisonous effect but unwilling or unable for a time to banish it entirely from his life. Following his prewar resignation from the Army, Grant at first devoted himself to farming on his father-in-law’s spread near St. Louis, taking full advantage of available slave labor to the horror of his own judgmental, antislavery father, Jesse. It was Jesse who finally gave Ulysses a job in his Galena, Ill., leather business, a means of escape from slaveholding Missouri. Grant did not vote in the 1860 election but later admitted he had preferred Stephen A. Douglas to the antislavery Lincoln.In 1862, it might be mentioned, Jesse’s wartime cotton speculating (in partnership with Jewish businessmen) likely triggered his son’s notorious Order No. 11, banning Jews “as a class” from his vast command—an order Lincoln overturned. Dismissing analyses that excuse that decree as merely “impulsive,” Mr. Reeves unsparingly judges it the product of an “unfathomable lack of judgment” and “shockingly” antisemitic beliefs.The general who never shied from impregnable obstacles took years to confront his complacent wife regarding slavery. Julia displayed a political tin ear, or worse, by visiting her husband’s various encampments with her enslaved servant Jule in tow, until Ulysses finally convinced her that such displays had become intolerable after Lincoln transformed the war into a fight for black freedom.In one of the many vivid episodes in this absorbing volume, Julia opted in January 1864 to bring Jule back “home” to her father’s farm in Missouri, a border state exempt from Lincoln’s emancipation order. In the bustling depot of Louisville, Ky., however, Julia lost sight of her servant—forever. Jule chose the moment to slip away and emancipate herself after nearly 40 years in bondage.Perhaps her escape sobered Grant to fight for black freedom unconflicted: as a onetime slave owner who, without fully conquering his demons, helped transform the promise of black freedom into reality. Little wonder that his closest comrade, Gen. William Sherman, appraised him a unique “combination of strength and weakness.” To Sherman, “Grant’s whole character was a mystery even to himself.” This book may not entirely solve that mystery, but it provides many fresh clues.Mr. Holzer, the director of Hunter College’s Roosevelt House, is the author of “Brought Forth on This Continent,” a forthcoming book on Lincoln and immigration.</t>
+  </si>
+  <si>
+    <t>It didn’t get a lot of attention, but last month the White House awarded $3.1 billion to the California High-Speed Rail project. This was supposed to be a bullet train connecting San Francisco and Los Angeles in less than three hours. Instead, its costs keep rising even as the state scales back the plan. Since 2008, when California voters authorized a $10 billion bond issue for the train, they’ve been sold a bill of goods.The original total estimated construction cost to taxpayers was $33 billion. That’s risen to at least $100 billion. The authority decided to offer service between San Francisco and Los Angeles in Phase I, then eventually extend the train service north to Sacramento and south to San Diego. Phase I was to have been completed by 2020. Within five years of the bond approval, costs had soared so high that the California High-Speed Rail Authority had to adopt an emergency plan to contain them. One idea was to slow down the trains by having them share tracks with conventional commuter trains in parts of the San Francisco and Los Angeles areas. That reduced projected costs by billions of dollars—but made a mockery of the “high speed” rail claim. In 2019 newly inaugurated Gov. Gavin Newsom declared that because of construction complications and cost overruns, the train would initially travel only down a 171-mile segment between Merced (a 130-mile drive from San Francisco) and Bakersfield (110 miles from Los Angeles). That segment was to cost $22.8 billion.Then the California High-Speed Rail Peer Review Committee dropped another bomb: The San Francisco to Los Angeles phase would take another 15 to 20 years to build, would cost three times as much as projected, and would be unable to meet legally mandated trip times.About the same time, the nonpartisan Legislative Analyst’s Office highlighted a $10 billion to $12 billion funding shortfall for the Merced-to-Bakersfield segment, though only a year before the California High-Speed Rail Authority’s 2022 Business Plan had said “revenues would be roughly equivalent to costs.” The federal grant will pay for less than one-third of the year’s cost overrun.In legislative testimony, Louis S. Thompson, chairman of the Peer Review Committee, put the Phase I funding gap at $93 billion to $103 billion. He also noted there is at least an $8 billion increase that hasn’t been counted in the Southern California segment. “Even with a realistic share of new federal funding,” he said, “the project cannot get outside the Central Valley without added state or local funding.” The Legislative Analyst’s Office agreed.Future cost escalation seems likely on the San Francisco and Los Angeles legs of Phase I, with massive tunneling through the Tehachapi Mountains toward Los Angeles and below the Coast Range toward San Francisco.The committee concluded that “there is no existing federal program anywhere near the scale or sustaining level needed. There will need to be significant and sustained additional State funding on a predictable and adequate level.” But the Legislative Analysts’s Office has announced a $68 billion deficit, slamming that window shut for now—unless more federal money is on the way.Meanwhile, Florida has a new rail system up and running between Orlando and Miami, with all private financing. Florida also has a state budget surplus. Mr. Cox is a senior fellow with the Committee to Unleash Prosperity and principal of Demographia, a St. Louis-area public-policy and transportation research firm.</t>
+  </si>
+  <si>
+    <t>The good news about U.S.-China relations is that last month the two countries restored military-to-military dialogue after a 16-month rupture. The bad news is that it hasn’t slowed the military buildup in Beijing, which increasingly appears to be on a wartime footing. The U.S. needs to do likewise and reassemble what President Franklin D. Roosevelt referred to as the nation’s “arsenal of democracy.”Chinese leaders have articulated a long-term national strategy to achieve the “great rejuvenation of the Chinese nation on all fronts,” including developing a world-class military. Over the past decade, the Chinese Communist Party has ramped up defense industrial production and significantly improved its process of researching, developing and producing advanced weapons systems. As Air Force Secretary Frank Kendall III recently observed, China is preparing “specifically for a war with the U.S.” China’s defense industrial efforts have strengthened its military capabilities. The People’s Liberation Army is amassing a formidable arsenal of medium- and long-range precision missiles capable of striking U.S. and allied bases in the Indo-Pacific. The PLA is also building a web of integrated air-defense systems to challenge U.S. forces in the region. Three of the world’s 10 largest defense companies are now Chinese enterprises: Aviation Industry Corp. of China, China North Industries Group and China South Industries Group.The main beneficiary of China’s defense industrial growth is arguably the PLA’s navy. China is now the world’s largest shipbuilder by a significant margin. Its shipbuilding capacity is more than 230 times as large as the U.S.’s, allowing it to build 23 million tons of vessels, compared with less than 100,000 tons in the U.S. One Chinese shipyard, the Jiangnan Shipyard located on Changxing Island, has more capacity than all U.S. shipyards combined, according to U.S. Navy estimates.Beijing’s buildup should be a blinking red light for Washington. The U.S. defense industrial base lacks the capacity, responsiveness, flexibility and surge capability to meet the military’s needs. Part of the problem is that the U.S. defense industrial base remains on a peacetime footing, despite wars in Ukraine and the Middle East, as well as growing tension in the Taiwan Strait and Korean Peninsula. The U.S. faces a serious shortfall of munitions—especially long-range precision munitions—for a protracted war in the Indo-Pacific. That is owing in some part to Congress’s dragging its feet in fixing contracting problems, such as multiyear procurement. Supply-chain challenges remain serious, too, leading to an insufficient supply of solid rocket motors, ball bearings, microelectronics, and seekers for munitions. Today’s workforce is also inadequate to meet the demands of the defense industrial base.Yet the U.S. private sector is the most innovative in the world, and it boasts a strong track record of revitalizing its defense industrial base during periods of crisis, such as during World War II and the Cold War. There is, however, a long way to go.A good place to start is at the White House. Presidents Roosevelt, Harry Truman, Dwight Eisenhower and Ronald Reagan established defense production boards to provide strategic guidance, oversee U.S. defense production, fix bureaucratic problems among executive agencies, and provide a sense of urgency. A national-level body is critical to oversee such a project of revitalization.The Defense Department and Congress should also allocate additional funding and other enticements—such as tax incentives, regulatory relief and long-term contracts—to build and maintain production capacity. This funding could be used to modernize and expand defense facilities and develop flexible production. These steps will likely require an increase in defense spending. The U.S. is spending roughly 3% of its gross domestic product on defense, compared with 14% under Truman, 11% under Eisenhower, 9% under John F. Kennedy and more than 6% under Reagan.FDR in December 1940, a year before Pearl Harbor, implored the nation to revitalize its defense industry: “We must apply ourselves to our task with the same resolution, the same sense of urgency, the same spirit of patriotism and sacrifice as we would show were we at war.” We need to heed that advice again before it’s too late.Mr. Jones is senior vice president and director of the International Security Program at the Center for Strategic and International Studies.</t>
+  </si>
+  <si>
+    <t>President Biden on Friday denounced Russia for having “launched its largest aerial assault on Ukraine since this war began.” The attack used some 158 missiles and drones to hit targets throughout the country. “It is a stark reminder to the world,” Mr. Biden said, that Vladimir Putin “seeks to obliterate Ukraine and subjugate its people. He must be stopped.”Yet while Russia can strike anywhere in Ukraine, the U.S. has denied the Ukrainians the weapons they need to hit Russian targets, even in the parts of Ukraine that Russia occupies. This raises the question: Does Mr. Biden want Ukraine to win? He has spoken about standing shoulder to shoulder with Ukraine, about helping the country “for as long as it takes” and about not letting Mr. Putin win. But the administration has never made a clear commitment to a Ukrainian victory—to helping the country liberate all its legally recognized territory and become part of the North Atlantic Treaty Organization.Perhaps the reason for this reluctance is obvious: The Biden administration doesn’t want Ukraine to win. Instead, there are signs the administration wants to force a sordid deal on Kyiv, one in which Ukrainians hand over large parts of their country, including Crimea, to Mr. Putin. The best evidence of this is that the administration has bent over backward not to supply Ukraine with the weapons needed to hit Russian targets in Crimea.While the U.S. has pumped about $50 billion of weaponry into Ukraine, what it has given is rather one-dimensional. Washington has mostly sent weapons of limited range (howitzers, artillery, fighting vehicles and ammunition) and defensive weapons such as Patriot antiair systems. The administration has temporized about sending longer-range weapons, even though the U.S. has large stocks of them.One example is the limited way the U.S. has supplied Ukraine with Himars ammunition. First appearing on the battlefield in early summer 2022, U.S.-made Himars, an acronym for High-Mobility Artillery Rocket Systems, showed their value with great accuracy and punch. Ukraine used Himars to devastate Russian ammunition and supply depots, helping stop the Russian army in its tracks and leading to the liberation of much Ukrainian territory around Kharkiv and Kherson.Yet the administration limited the type of Himars ammunition it provided, making sure the Ukrainians could attack Russian forces only within about 50 miles of the front—leaving Crimea off-limits. Predictably, after a few weeks of seeing their depots exploding, the Russians moved their supply points more than 50 miles from the front, many to Crimea. The Ukrainians had no way to hit them.The administration’s action had to be deliberate, as the U.S. has significant stores of Himars ammunition, known as ATACMS (for Army Tactical Missile Systems), which could reach targets in the internationally recognized territory of Ukraine. No matter how often the Ukrainians asked for ATACMS, the answer was, until recently, no. Finally in October, the U.S. sent Ukraine around 20 ATACMS. Ukraine used them against Russian military helicopters and other targets that had been out of range. However far too few ATACMS were sent. After a handful of successful operations, Ukraine seems to have run out.In depriving the Ukrainians of the ability to mount a sustained, long-range campaign against Russia, the administration is leaving Kyiv without the capability it needs to win. The ground war at the front in 2023 has made it clear that direct advances against prepared defensive positions are almost impossible. Both in the spring around the city of Bakhmut and in the autumn around Avdiivka, the Russians made very slow progress at the cost of mass casualties and crippling equipment losses. The Ukrainians, when supplied with Western tanks and vehicles, struggled to advance this summer. In comparison, long-range weapons have been very effective. In 2023 the U.K. and France sent Ukraine a few hundred of their Storm Shadow/Scalp cruise missiles. The systems are similar but have different names. These missiles enabled Ukrainians to hit targets anywhere in Crimea and to neuter Russian naval power in the peninsula. The Storm Shadow/Scalps played a crucial role in the Ukrainian attack on Sevastopol in September. Sevastopol was the headquarters of the Russian Black Sea Fleet, and Moscow considered it relatively safe. Within moments, fire rained down on the base, damaging two major warships so badly that they haven’t operated since. Last week the Ukrainians used Storm Shadow/Scalps to sink the landing ship Novocherkassk in Crimea. The attack underscores Crimea’s vulnerability to long-range fire. Only the Kerch Bridge connects it to Russia. As the Russians are being driven from the naval bases, they will become almost entirely reliant on the bridge. If the Ukrainians could stop movement across it, Russian rule over Crimea would be threatened. The U.S. has many systems in addition to ATACMS, such as Joint Air-to-Surface Standoff Missiles, that could help, but it isn’t offering them. Arming Ukraine with long-range systems would help Ukraine liberate Crimea and end the war sooner, saving lives on both sides. An administration that wants Ukraine to win should see that and act accordingly. If the Biden administration continues to hem and haw, after all we have seen in recent months, we can stop asking whether it wants Ukraine to win the war. The answer would be no.Mr. O’Brien is a professor of strategic studies at the University of St. Andrews, Scotland.</t>
+  </si>
+  <si>
+    <t>TEL AVIV—Israel began preparations for prolonged fighting in the Gaza Strip, reshuffling forces as it weighs how to sustain lower-intensity fighting over the long term.Israel’s top general said that it would take at least several more months to destroy Hamas’s military capabilities in the enclave.On Monday, Israel said it would adjust its ground-force composition in Gaza, with plans to rotate five brigades—estimated to be thousands of troops—out of the Gaza Strip this week, some of which might be replaced. The military has also recalibrated the types of troops required, now relying more heavily on commando and combat-engineering forces, as Israel increasingly tries to penetrate subterranean tunnel infrastructure and hunt down senior Hamas leadership.“These adaptations are designed to ensure planning and preparation for 2024,” Daniel Hagari, the Israeli military’s chief spokesperson, said Sunday night. “The war’s goals require prolonged fighting, and we are preparing accordingly.”The prospect of an extended period of hostilities in Gaza comes amid friction between Israel and the U.S., its main ally, which has been pushing the government of Prime Minister Benjamin Netanyahu to begin winding down a war that has devastated the enclave and killed thousands.On Sunday, the United Nations said 40% of the Gaza population is at risk of famine and all children under 5 years old—or a total of about 335,000—are at high risk of severe malnutrition. The war has displaced 85% of the population and pushed almost all Gazans into poverty, according to the U.N., amid a daily struggle to find food and avoid Israeli airstrikes.While some Western officials and analysts have questioned whether Israel can succeed in its goal of eradicating Hamas, the new military plans reflect the country’s determination to continue to pursue that goal.Swapping out forces who have been serving for long periods in Gaza is important to refresh weary troops ahead of a planned long campaign. Moreover, demobilizing a portion of the about 360,000 reservists called up for duty since Oct. 7 will ease pressure on Israel’s workforce and its economy.Cycling out brigades from northern Gaza suggests that Israel has largely transitioned from offensive to consolidation efforts, according to Ofer Shelah, a military analyst with Tel Aviv’s Institute for National Security Studies.“Once you stop advancing and you take over or you demolish enough infrastructure, to stay there with so many soldiers is what guerrilla forces want you to do,” he said.The war in Gaza has sparked tensions elsewhere in the Middle East and has raised the risk of a broader confrontation between Iran, which has backed Hamas in its goal of destroying Israel, and the U.S., which has moved aircraft carriers and other military support to the area to deter Iran and its allies from attacking Israel.Over the weekend, U.S. Navy helicopters sank three boats piloted by Houthi fighters, a Yemeni group backed by Iran, after those boats threatened a commercial vessel in the Red Sea. There have been more than 20 Houthi attacks on commercial vessels since November.The USS Gerald R. Ford carrier strike group will be leaving the region in the coming days, defense officials said. A second carrier, the Dwight D. Eisenhower, will continue operating in the Red Sea. Since the Oct. 7 start of the war, the U.S. also has deployed additional destroyers and amphibious assault ships throughout the region.Tasnim, an Iranian semiofficial news agency close to the country’s security establishment, said Monday that an Iranian destroyer has been moved to the Red Sea near the Bab el-Mandeb strait, a key crossing between the Indian Ocean and the Red Sea.The clash between the Houthis and the U.S. Navy—the first involving close combat between U.S. forces and the militants—poses the question of whether the Biden administration should retaliate against the militants to deter further such aggression.On Monday, U.S. forces in Syria were the target of two attacks, one by multiple rockets and the other by a drone, according to U.S. officials. Since mid-October, there have been at least 115 attacks on U.S. and allied forces in Syria and Iraq, with many of them claimed by Iran-backed militants.Israel launched what has become one of its most costly recent conflicts after Hamas—a group designated by the U.S. as a terrorist organization—attacked southern Israel on Oct. 7, killing 1,200 people, mostly civilians, and kidnapping more than 240.According to the Palestinian Central Bureau of Statistics, more than 22,000 people, mostly women and children, have been killed in Gaza since the war broke out. The figures don’t distinguish between civilian and combatant deaths. According to the health ministry in Hamas-controlled Gaza, 57,000 have been injured.Shahd Swairki, 35 years old, who fled her home in Gaza City in the north to Rafah, a town on the border with Egypt, said that food is available in the south, but at very high prices. She is crowded with her extended family in a rented apartment. Many other displaced families are in tents. The lack of cooking gas has forced people to burn wood, or even garbage, to cook.“People here live amid garbage, all of us are sick, the smoke from the fires we burn makes us feel more sick,” said Swairki. “The situation is just getting worse.”Even as Israel announced the changes to its deployment, analysts say any shift to lower-intensity fighting is possible only as Israel establishes operational control over an area, meaning its forces can maneuver freely in the zone.Nearly three months into Israel’s war against Hamas and other militants in the Gaza Strip, Israel says it has broken the main command-and-control lines in the enclave’s north and weakened them in the south, but small groups of Hamas fighters continue to ambush Israeli forces and fire rockets toward Israel from across the Strip.On Monday morning, Hamas showed it has retained long-range rocket capabilities by launching an intense barrage at Tel Aviv at the stroke of midnight.Two of the five Israeli brigades set to rotate out of Gaza are reservists, some of whom the military said will be demobilized. The remaining three are training brigades, which can be quickly redeployed into battle as needed.Since the start of the invasion of Gaza, 173 Israeli soldiers have died and more than 900 have been wounded, according to the Israeli military.Meanwhile, clashes continue across Gaza. In Gaza City’s Shujaiyeh neighborhood, the Israel military said on Monday that its forces raided a command compound used by Hamas and allied group Palestinian Islamic Jihad. In central Gaza, Israel said it killed a midranking officer commanding Hamas’s elite Nukhba fighting force in Deir al-Balah.In addition to operating in Khan Younis, Israeli forces are also on the ground in Khirbat Ikhza’a, a border town that the military said was one of the launch points for Hamas’s Oct. 7 attack.The U.N. agency for Palestinian refugees said Friday that humanitarian aid deliveries to Gaza are “limited in quantities and riddled with logistical hurdles,” saying Israeli restrictions and airstrikes on the border areas are constraining the flow of aid. The U.N. also said a breakdown in law and order and looting by desperate Gazans was also making it hard to secure convoys.“There is a countdown to avert famine,” said Juliette Touma, a spokeswoman for the agency. “Much more food needs to get in.”The Israeli military said it works to facilitate aid into Gaza and blamed logistical bottlenecks created by the U.N. for the delays.The World Health Organization said that crowded and unsanitary conditions are causing hundreds of thousands of cases of infectious diseases and stomach ailments. Most of Gaza’s hospitals are no longer functioning and those still able to take patients have limited treatment available.The U.N.’s children’s agency said Friday that it had delivered 600,000 doses of vaccines for children into Gaza.Write to Saeed Shah at saeed.shah@wsj.com</t>
+  </si>
+  <si>
+    <t>TEL AVIV—Israel’s highest court has struck down a controversial judicial overhaul law enacted last year by the government of Prime Minister Benjamin Netanyahu that would have limited the justices’ power.Israel’s Supreme Court ruled against a central piece of a judicial overhaul that Netanyahu was pushing before the war in Gaza erupted last October. The court struck down a law, which was passed in July and was akin to a constitutional amendment, that would have taken away the court’s powers to abrogate government decisions it deems to be “unreasonable in the extreme.”The ruling could revive the deep political and social strife generated by the judicial reform last year, just as the country reels from the Oct. 7 attack by Hamas militants on southern Israel and is embroiled in a devastating war in Gaza.Before the Oct. 7 attack, hundreds of thousands of Israelis came out weekly to protest against Netanyahu’s push to limit the powers of the court and give more control to the elected government.Eight justices ruled in favor of striking down the law, with seven against.The much-anticipated decision is overshadowed by Israel’s continuing war with Hamas militants in the Gaza Strip. But analysts say it could have substantial consequences for postwar domestic politics, including any inquiry into the intelligence failures leading up to the Oct. 7 Hamas-led assault on southern Israel, which left about 1,200 people dead—most of them civilians—according to Israeli authorities.The ruling also has potential to reignite a divisive national debate and provoke a constitutional crisis.The law, passed last summer by Israel’s parliament, the Knesset, was part of a broader package of legislation aimed at limiting the court’s power and giving more control to lawmakers. Netanyahu has argued that activist, liberal judges control the court and that the legislation seeks to restore a proper balance of power. Opponents charge that the legislation would undermine the court’s role as a check on executive and legislative power and would erode Israel’s liberal democracy.</t>
+  </si>
+  <si>
+    <t>Do they ever give up? Those looking to divvy up Americans by race, that is. In California they tried to get race preferences approved in a 2020 referendum, but voters rejected it 57.2% to 42.8%. This was a stunning rebuke, not only because the rejection came from residents of a blue state but because the losing side had outspent opponents something like 14 to 1.In 2023 the Supreme Court weighed in with a landmark ruling that barred colleges from treating people as members of a racial group instead of as individuals—and cast constitutional doubt on all race-based preferences. “Eliminating racial discrimination means eliminating all of it,” Chief Justice John Roberts wrote. Couldn’t be clearer, right?Not in California. Undaunted state Assemblyman Corey Jackson is pushing a bill called ACA7. It takes aim at the state ban on race preferences that voters put in the constitution in 1996 when they passed Proposition 209. Californians reaffirmed Proposition 209 three years ago at the ballot box.The language the voters agreed to and the activists hate reads as follows: “The state shall not discriminate against, or grant preferential treatment to, any individual or group on the basis of race, sex, color, ethnicity, or national origin in the operation of public employment, public education, or public contracting.”Unlike the 2020 effort, the new bill would leave that language intact. Instead, it would add a provision allowing the governor to create “exceptions.” Effectively that would gut the ban.Apparently, the lesson the advocates of state-sponsored discrimination have taken from their defeat is that if at first you don’t succeed, try something sneakier. Here is Mr. Jackson’s press release summarizing the bill: “ACA7 will allow . . . the Governor to issue waivers to public agencies that wish to use state funds for research-based, or research-informed and culturally specific interventions to increase life expectancy, improve educational outcomes, and lift people out of poverty for specific ethnic groups and marginalized genders.”Gail Heriot is a University of San Diego law professor who sits on the U.S. Commission on Civil Rights and was a leader of both Proposition 209 and the “no” effort on the 2020 referendum. She has launched a petition with Extremely Concerned Californians at change.org opposing the measure.“ACA7’s proponents are hoping that voters will be fooled into thinking that it is just a small exception,” Ms. Heriot says. “In fact, it gives the governor enormous power to nullify Proposition 209.”Edward Blum agrees. As the founder of Students for Fair Admissions, he spearheaded the lawsuits against Harvard and the University of North Carolina that killed race preferences in college admissions.“Racial preferences are never legally justified because some specious ‘research’ report concludes it would be beneficial to a certain race,” says Mr. Blum. “This exemption will trigger endless litigation that will polarize California citizens by race.”But sowing discord is a feature, not a bug. As the bill was making its way through the Assembly, Mr. Jackson got in a spat with Bill Essayli—a Republican who is also the first Muslim elected to the Assembly. Mr. Essayli pointed out that the majority of Californian voters disagree with state-sanctioned discrimination. “I fundamentally disagree with this backwards policy,” he later tweeted.Mr. Jackson responded in his own tweet: “This is a perfect example how a minority can become a white supremacist by doing everything possible to win white supremacist and fascist affection.”ACA7 passed the state Assembly in September. If it passes the Senate, it will be on the ballot in November. If Californians vote yea, it will become part of the constitution. But all is not lost. The 2020 referendum awakened a sleeping giant: the Asian-American community. Asian-Americans quickly realized (as the Harvard case drove home) that they and their children are the primary victims whenever race is substituted for merit. Asian-Americans are more aware and organized than they were in 2020. They aren’t likely to be fooled by talk of “exceptions” based on “research.” It also isn’t a given that ACA7 will make it through the state Senate. Though Democrats enjoy a 32-8 majority, polls consistently show race preferences are unpopular. Gov. Gavin Newsom’s support will be crucial.Though he has no formal role in the constitutional process, some think the bill will go nowhere if Mr. Newsom doesn’t want it to. If it does make it to the ballot this November, he’ll be under immense pressure to endorse it. That’s another reason the Senate should kill ACA7 now, Ms. Heriot says.“California voters need to make sure their state senators know where they stand—through emails, phone calls, letters, and petitions,” Ms. Heriot says. “Once the senators understand that, they will realize putting ACA7 on the ballot is not in their interest.”Write to mcgurn@wsj.com</t>
+  </si>
+  <si>
+    <t>China’s Supreme Leader Xi Jinping offered his traditional New Year’s greeting Monday with a warning. “The reunification of the motherland is a historical inevitability,” Mr. Xi said, according to the Chinese-language version documented by various news sources.“Compatriots on both sides of the Taiwan Strait should be bound by a common sense of purpose and share in the glory of the rejuvenation of the Chinese nation,” he added. The official English translation wrote “all Chinese” rather than “compatriots,” according to a Reuters dispatch.The language comes 12 days before Taiwan’s voters go to the polls in a hotly contested three-way race for President. Chinese propaganda is working hard against front-runner Lai Ching-te, the current vice president and presidential nominee of the ruling Democratic Progressive Party. Mr. Lai and his party are obstacles to coerced reunification.One big question for the New Year is how does China react if Mr. Lai wins? Does Mr. Xi tell his military to increase its harassment of Taiwan airspace and waters? Or, with two hot wars around the word and an election year in the U.S. that is likely to be highly divisive, will he try something more daring?The White House thinks its recent parlays with Beijing have put U.S.-China bilateral relations on a more stable course. Perhaps that’s right. But it’s worth recalling that, in the Chinese Lunar Calendar, 2024 is the Year of the Dragon, and to prepare accordingly.</t>
+  </si>
+  <si>
+    <t>The plaintiffs bar never met a business it wouldn’t sue, and now the lawyers are using government authority to pursue private interests. In their latest business model, trial lawyers are hired by state attorneys general to help prosecute public lawsuits then use it to the advantage of their private lawsuits. Kudos to one company for pushing back. In December pharmacy benefit manager OptumRx filed a motion in federal court in Ohio to disqualify Motley Rice, a South Carolina plaintiffs firm suing the company in multidistrict opioid litigation. Motley has been retained by state attorneys general and city prosecutors in Washington, D.C., Hawaii and Chicago to handle the government’s litigation, but it continues to represent private clients in related litigation.This double dipping would break the rules of professional conduct in nearly any industry, but it’s an open scandal in the tort business. In a typical arrangement, trial lawyers are hired as “special assistant attorneys general” on a given case, a designation that confers advantages during legal discovery. The lawyers then turn around and share information to benefit private lawsuits where they can make millions in contingency fees.In its motion to disqualify Motley Rice, OptumRx notes that under the Ohio Rules of Professional Conduct, lawyers are barred from knowingly having “confidential government information about a person, acquired when the lawyer was a public officer or employee” and from representing a “private client whose interests are adverse to that person.” In its role working on state opioid lawsuits, Motley served subpoenas that required Optum to deliver what it called “wide swaths of confidential business records and testimony.” Faced with the government subpoenas, the company “produced thousands of pages of confidential information” and sent the documents “directly to Motley Rice.” With that information, Motley continued litigating its private cases against Optum and other pharmacy benefit managers on opioid matters. The Optum motion, along with the consolidated opioid litigation, is before federal Judge Aaron Polster, who has pushed the parties to reach settlements. In a recent telephone hearing, Judge Polster is reported to have told OptumRx lawyer Brian Boone that he should think twice about filing the disqualification motion against the trial lawyers, whom he considers to be cooperative.“Your clients need to understand if they file these motions, it will be very difficult to maintain that level of professional cooperation, and that will clearly have negative repercussions for your clients,” Judge Polster said, according to Law360, a legal news website which got a transcript of the hearing. “I don’t need to spell it out. But if they’re not listening you ought to explain to them exactly what I mean.” That’s loud and clear. Judge Polster is discouraging Optum’s lawyers from filing a motion that reflects poorly on Motley Rice. But if companies can’t challenge the trial lawyers’ alliance with state attorneys general, they are destined to be saddled with bills for the opioid epidemic regardless of legal liability. The opioid crisis is a tragedy with many causes, but using government authority for the enrichment of the trial bar is not a triumph of justice.</t>
+  </si>
+  <si>
+    <t>Good news: The U.S. military isn’t packed with violent extremists. That’s the gist of a new report commissioned by the Pentagon in 2021 and released quietly with little notice in December. The result won’t surprise Americans who have spent time in uniform, but it should calm the media frenzy about right-wing radicals in the armed forces.After reports that some service members participated in the Jan. 6 riot, Defense Secretary Lloyd Austin ordered an independent study to get “greater fidelity” on extremism in the ranks. The think tank tasked with the report, the Institute for Defense Analyses (IDA), “found no evidence that the number of violent extremists in the military is disproportionate” to U.S. society. A review of Pentagon data suggested “fewer than 100 substantiated cases per year of extremist activity by members of the military in recent years,” the report says.That figure could include a range of conduct and ideological bent, not simply the white supremacy floated in the press. Take court martials. Researchers found that “the prevalence of extremist and gang-related activity that are reflected in court-martial opinions is limited to fewer than 20 cases” since 2012. Gang activity isn’t typically political and, excluding those cases, the number falls to one a year.One useful conclusion is that the military doesn’t need a new section of the Uniform Code of Military Justice to punish what few “extremist” criminal cases exist. Researchers note that commanders can rely on Article 116 (riot or breach of peace); Article 88 (contempt toward officials); Article 109 (destruction or damage to property); Article 115 (communication of threats), among others such as assault.Even the Jan. 6 story isn’t what you’ve heard. IDA found that “of the more than 700 federal cases in which charges were publicly available a year after these events, fewer than ten” were in the military at the time. There’s “no evidence that service members were charged at a different rate than the members of the general population.” The picture changes when veterans are included, though the Pentagon doesn’t command former service members who are civilians.But the inquisition into extremism does polarize the active force. Researchers deserve credit for noting that “the risk to the military from widespread polarization and division in the ranks may be a greater risk than the radicalization of a few service members.”This is a welcome rebuke to the narrative that the military is a breeding ground for domestic terrorism. The press carried that story everywhere in 2021, including calls for tips: “Have You Witnessed Far-Right Extremism Inside the Military?” But the press interest in military extremism has outstripped the actual extremists available to cover. A Rand survey found that, among veterans, support for “extremist groups and extremist ideals” is similar to or less than the general public.The U.S. military reflects the strengths and weaknesses of American society. But it has a strong culture that keeps men and women from joining the political fringes: Uniting members of all races and creeds in a common purpose, and steeping them in the military’s rich tradition of duty, honor, country.</t>
   </si>
   <si>
     <t>Baidu BIDU 1.08%increase; green up pointing triangle has called off a $3.6 billion deal to buy JOYY’s video-based entertainment live-streaming business in China.As of the end of December, the closing conditions for the share purchase agreement had yet to be fully satisfied, Baidu said in a filing late Monday.Some of the closing conditions in the share purchase agreement included obtaining regulatory approvals from governmental authorities.“The company seeks to discuss with JOYY the next steps following the termination of the share purchase agreement,” the Chinese tech company said.In a separate statement Monday, Nasdaq-listed JOYY said it is seeking legal advice and will consider all options in response to Baidu’s notice to terminate the deal.JOYY announced the deal nearly four years ago, under which Baidu’s acquisition would have included the YY mobile app, YY.com website, and PC YY.The Nasdaq-listed company operates several social products, including Bigo Live, Likee for short-form videos, Hago for multiplayer social networking, and an instant messaging product.Write to P.R. Venkat at Venkat.PR@wsj.com</t>
@@ -431,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,10 +804,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -473,10 +818,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -487,10 +832,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -501,10 +846,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -515,10 +860,612 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
         <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
